--- a/DRL_Automated_Trading/results14/SIE.DE.xlsx
+++ b/DRL_Automated_Trading/results14/SIE.DE.xlsx
@@ -876,28 +876,28 @@
         <v>44123</v>
       </c>
       <c r="C14" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1037480.590637072</v>
+        <v>6.297703574010875</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>9593</v>
       </c>
       <c r="F14" t="n">
-        <v>1037480.590637072</v>
+        <v>1038173.440923004</v>
       </c>
       <c r="G14" t="n">
         <v>108.2213221327458</v>
       </c>
       <c r="H14" t="n">
-        <v>692.850285931658</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1028237.761897627</v>
       </c>
       <c r="J14" t="n">
-        <v>9236.531035871361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -911,25 +911,25 @@
         <v>-1</v>
       </c>
       <c r="D15" t="n">
-        <v>1037480.590637072</v>
+        <v>1029821.370389465</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1037480.590637072</v>
+        <v>1029821.370389465</v>
       </c>
       <c r="G15" t="n">
         <v>107.4224251725945</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>688.2519948084195</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1577.31078826345</v>
       </c>
     </row>
     <row r="16">
@@ -940,16 +940,16 @@
         <v>44125</v>
       </c>
       <c r="C16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1037480.590637072</v>
+        <v>1029821.370389465</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1037480.590637072</v>
+        <v>1029821.370389465</v>
       </c>
       <c r="G16" t="n">
         <v>107.1106590364095</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1037480.590637072</v>
+        <v>1029821.370389465</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1037480.590637072</v>
+        <v>1029821.370389465</v>
       </c>
       <c r="G17" t="n">
         <v>105.4056948254284</v>
@@ -1007,13 +1007,13 @@
         <v>-1</v>
       </c>
       <c r="D18" t="n">
-        <v>1037480.590637072</v>
+        <v>1029821.370389465</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1037480.590637072</v>
+        <v>1029821.370389465</v>
       </c>
       <c r="G18" t="n">
         <v>106.3312459437428</v>
@@ -1039,13 +1039,13 @@
         <v>-1</v>
       </c>
       <c r="D19" t="n">
-        <v>1037480.590637072</v>
+        <v>1029821.370389465</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1037480.590637072</v>
+        <v>1029821.370389465</v>
       </c>
       <c r="G19" t="n">
         <v>105.8148859889959</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1037480.590637072</v>
+        <v>1029821.370389465</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1037480.590637072</v>
+        <v>1029821.370389465</v>
       </c>
       <c r="G20" t="n">
         <v>104.0222411531015</v>
@@ -1103,22 +1103,22 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>10494.23101664087</v>
+        <v>10469.70841707515</v>
       </c>
       <c r="E21" t="n">
-        <v>10357</v>
+        <v>10280</v>
       </c>
       <c r="F21" t="n">
-        <v>1036794.860259527</v>
+        <v>1029140.218083665</v>
       </c>
       <c r="G21" t="n">
         <v>99.09246202982388</v>
       </c>
       <c r="H21" t="n">
-        <v>685.7303775457316</v>
+        <v>681.1523057999538</v>
       </c>
       <c r="I21" t="n">
-        <v>1026986.359620432</v>
+        <v>1019351.661972389</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>-1</v>
       </c>
       <c r="D22" t="n">
-        <v>1020074.886174041</v>
+        <v>1012544.030022567</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1020074.886174041</v>
+        <v>1012544.030022567</v>
       </c>
       <c r="G22" t="n">
         <v>97.54337734990133</v>
       </c>
       <c r="H22" t="n">
-        <v>676.1040555277569</v>
+        <v>671.5975514941915</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-17405.70446303114</v>
+        <v>-17277.34036689787</v>
       </c>
     </row>
     <row r="23">
@@ -1167,13 +1167,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1020074.886174041</v>
+        <v>1012544.030022567</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1020074.886174041</v>
+        <v>1012544.030022567</v>
       </c>
       <c r="G23" t="n">
         <v>97.39724277820224</v>
@@ -1199,13 +1199,13 @@
         <v>-1</v>
       </c>
       <c r="D24" t="n">
-        <v>1020074.886174041</v>
+        <v>1012544.030022567</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1020074.886174041</v>
+        <v>1012544.030022567</v>
       </c>
       <c r="G24" t="n">
         <v>99.58933529293923</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1020074.886174041</v>
+        <v>1012544.030022567</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1020074.886174041</v>
+        <v>1012544.030022567</v>
       </c>
       <c r="G25" t="n">
         <v>102.4146987382441</v>
@@ -1263,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1020074.886174041</v>
+        <v>1012544.030022567</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1020074.886174041</v>
+        <v>1012544.030022567</v>
       </c>
       <c r="G26" t="n">
         <v>103.3305088668294</v>
@@ -1295,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1020074.886174041</v>
+        <v>1012544.030022567</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1020074.886174041</v>
+        <v>1012544.030022567</v>
       </c>
       <c r="G27" t="n">
         <v>106.253304659189</v>
@@ -1324,16 +1324,16 @@
         <v>44141</v>
       </c>
       <c r="C28" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1020074.886174041</v>
+        <v>1012544.030022567</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1020074.886174041</v>
+        <v>1012544.030022567</v>
       </c>
       <c r="G28" t="n">
         <v>105.64926624453</v>
@@ -1359,13 +1359,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1020074.886174041</v>
+        <v>1012544.030022567</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1020074.886174041</v>
+        <v>1012544.030022567</v>
       </c>
       <c r="G29" t="n">
         <v>111.7091880734353</v>
@@ -1391,13 +1391,13 @@
         <v>-1</v>
       </c>
       <c r="D30" t="n">
-        <v>1020074.886174041</v>
+        <v>1012544.030022567</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1020074.886174041</v>
+        <v>1012544.030022567</v>
       </c>
       <c r="G30" t="n">
         <v>114.5248199015832</v>
@@ -1423,13 +1423,13 @@
         <v>-1</v>
       </c>
       <c r="D31" t="n">
-        <v>1020074.886174041</v>
+        <v>1012544.030022567</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1020074.886174041</v>
+        <v>1012544.030022567</v>
       </c>
       <c r="G31" t="n">
         <v>115.0119453911686</v>
@@ -1455,13 +1455,13 @@
         <v>-1</v>
       </c>
       <c r="D32" t="n">
-        <v>1020074.886174041</v>
+        <v>1012544.030022567</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1020074.886174041</v>
+        <v>1012544.030022567</v>
       </c>
       <c r="G32" t="n">
         <v>110.7056967673341</v>
@@ -1487,13 +1487,13 @@
         <v>-1</v>
       </c>
       <c r="D33" t="n">
-        <v>1020074.886174041</v>
+        <v>1012544.030022567</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1020074.886174041</v>
+        <v>1012544.030022567</v>
       </c>
       <c r="G33" t="n">
         <v>111.1051469603812</v>
@@ -1519,13 +1519,13 @@
         <v>-1</v>
       </c>
       <c r="D34" t="n">
-        <v>1020074.886174041</v>
+        <v>1012544.030022567</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1020074.886174041</v>
+        <v>1012544.030022567</v>
       </c>
       <c r="G34" t="n">
         <v>109.9652542261349</v>
@@ -1551,22 +1551,22 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>10349.39008448329</v>
+        <v>10323.2449833351</v>
       </c>
       <c r="E35" t="n">
-        <v>9283</v>
+        <v>9214</v>
       </c>
       <c r="F35" t="n">
-        <v>1019399.506104429</v>
+        <v>1011873.150079509</v>
       </c>
       <c r="G35" t="n">
         <v>108.6987090401752</v>
       </c>
       <c r="H35" t="n">
-        <v>675.3800696119677</v>
+        <v>670.8799430577044</v>
       </c>
       <c r="I35" t="n">
-        <v>1009725.496089558</v>
+        <v>1002220.785039232</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>10349.39008448329</v>
+        <v>10323.2449833351</v>
       </c>
       <c r="E36" t="n">
-        <v>9283</v>
+        <v>9214</v>
       </c>
       <c r="F36" t="n">
-        <v>1017771.557548658</v>
+        <v>1010257.301970829</v>
       </c>
       <c r="G36" t="n">
         <v>108.523340241751</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1009725.496089558</v>
+        <v>1002220.785039232</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>10349.39008448329</v>
+        <v>10323.2449833351</v>
       </c>
       <c r="E37" t="n">
-        <v>9283</v>
+        <v>9214</v>
       </c>
       <c r="F37" t="n">
-        <v>1002667.957357071</v>
+        <v>995265.9659625036</v>
       </c>
       <c r="G37" t="n">
         <v>106.8963230930289</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1009725.496089558</v>
+        <v>1002220.785039232</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -1647,13 +1647,13 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>115.7827792842217</v>
+        <v>89.63767813603403</v>
       </c>
       <c r="E38" t="n">
-        <v>9378</v>
+        <v>9309</v>
       </c>
       <c r="F38" t="n">
-        <v>1005787.308370843</v>
+        <v>998361.7886412224</v>
       </c>
       <c r="G38" t="n">
         <v>107.237313456127</v>
@@ -1662,7 +1662,7 @@
         <v>46.06252686699924</v>
       </c>
       <c r="I38" t="n">
-        <v>1019959.103394757</v>
+        <v>1012454.392344431</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -1679,13 +1679,13 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>115.7827792842217</v>
+        <v>89.63767813603403</v>
       </c>
       <c r="E39" t="n">
-        <v>9378</v>
+        <v>9309</v>
       </c>
       <c r="F39" t="n">
-        <v>1017573.542370702</v>
+        <v>1010061.3037089</v>
       </c>
       <c r="G39" t="n">
         <v>108.4941095746873</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1019959.103394757</v>
+        <v>1012454.392344431</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -1711,25 +1711,25 @@
         <v>-1</v>
       </c>
       <c r="D40" t="n">
-        <v>1028581.09197208</v>
+        <v>1020987.348994593</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1028581.09197208</v>
+        <v>1020987.348994593</v>
       </c>
       <c r="G40" t="n">
         <v>109.7411762468865</v>
       </c>
       <c r="H40" t="n">
-        <v>687.441650505981</v>
+        <v>682.8983658093598</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>8506.205798038398</v>
+        <v>8443.318972026347</v>
       </c>
     </row>
     <row r="41">
@@ -1743,13 +1743,13 @@
         <v>-1</v>
       </c>
       <c r="D41" t="n">
-        <v>1028581.09197208</v>
+        <v>1020987.348994593</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1028581.09197208</v>
+        <v>1020987.348994593</v>
       </c>
       <c r="G41" t="n">
         <v>109.283271114946</v>
@@ -1775,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1028581.09197208</v>
+        <v>1020987.348994593</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1028581.09197208</v>
+        <v>1020987.348994593</v>
       </c>
       <c r="G42" t="n">
         <v>109.2735287545902</v>
@@ -1807,22 +1807,22 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>10415.19515069226</v>
+        <v>10356.4323652764</v>
       </c>
       <c r="E43" t="n">
-        <v>9323</v>
+        <v>9254</v>
       </c>
       <c r="F43" t="n">
-        <v>1027900.650698751</v>
+        <v>1020311.425998413</v>
       </c>
       <c r="G43" t="n">
         <v>109.1371292017654</v>
       </c>
       <c r="H43" t="n">
-        <v>680.4412733288351</v>
+        <v>675.922996179882</v>
       </c>
       <c r="I43" t="n">
-        <v>1018165.896821387</v>
+        <v>1010630.916629317</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -1839,13 +1839,13 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>163.1924046194061</v>
+        <v>104.4296192035462</v>
       </c>
       <c r="E44" t="n">
-        <v>9416</v>
+        <v>9347</v>
       </c>
       <c r="F44" t="n">
-        <v>1033486.087452773</v>
+        <v>1025855.183656491</v>
       </c>
       <c r="G44" t="n">
         <v>109.7411740705346</v>
@@ -1854,7 +1854,7 @@
         <v>46.07355751313583</v>
       </c>
       <c r="I44" t="n">
-        <v>1028417.89956746</v>
+        <v>1020882.919375389</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -1871,22 +1871,22 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>40.31303387042679</v>
+        <v>104.4296192035462</v>
       </c>
       <c r="E45" t="n">
-        <v>9417</v>
+        <v>9347</v>
       </c>
       <c r="F45" t="n">
-        <v>1034115.157377009</v>
+        <v>1026492.618009914</v>
       </c>
       <c r="G45" t="n">
         <v>109.8093707489794</v>
       </c>
       <c r="H45" t="n">
-        <v>13.07</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1028540.778938209</v>
+        <v>1020882.919375389</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>40.31303387042679</v>
+        <v>104.4296192035462</v>
       </c>
       <c r="E46" t="n">
-        <v>9417</v>
+        <v>9347</v>
       </c>
       <c r="F46" t="n">
-        <v>1032830.749299111</v>
+        <v>1025217.757406312</v>
       </c>
       <c r="G46" t="n">
         <v>109.6729782590252</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1028540.778938209</v>
+        <v>1020882.919375389</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -1935,13 +1935,13 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>40.31303387042679</v>
+        <v>104.4296192035462</v>
       </c>
       <c r="E47" t="n">
-        <v>9417</v>
+        <v>9347</v>
       </c>
       <c r="F47" t="n">
-        <v>1032463.742171929</v>
+        <v>1024853.478377134</v>
       </c>
       <c r="G47" t="n">
         <v>109.634005430398</v>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1028540.778938209</v>
+        <v>1020882.919375389</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -1967,13 +1967,13 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>40.31303387042679</v>
+        <v>104.4296192035462</v>
       </c>
       <c r="E48" t="n">
-        <v>9417</v>
+        <v>9347</v>
       </c>
       <c r="F48" t="n">
-        <v>1032830.736682664</v>
+        <v>1025217.744883648</v>
       </c>
       <c r="G48" t="n">
         <v>109.6729769192729</v>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1028540.778938209</v>
+        <v>1020882.919375389</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>40.31303387042679</v>
+        <v>104.4296192035462</v>
       </c>
       <c r="E49" t="n">
-        <v>9417</v>
+        <v>9347</v>
       </c>
       <c r="F49" t="n">
-        <v>1034023.421359148</v>
+        <v>1026401.563899375</v>
       </c>
       <c r="G49" t="n">
         <v>109.7996292158095</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1028540.778938209</v>
+        <v>1020882.919375389</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2031,13 +2031,13 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>40.31303387042679</v>
+        <v>104.4296192035462</v>
       </c>
       <c r="E50" t="n">
-        <v>9417</v>
+        <v>9347</v>
       </c>
       <c r="F50" t="n">
-        <v>1041638.356560676</v>
+        <v>1033959.894506647</v>
       </c>
       <c r="G50" t="n">
         <v>110.6082662766067</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1028540.778938209</v>
+        <v>1020882.919375389</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2063,25 +2063,25 @@
         <v>-1</v>
       </c>
       <c r="D51" t="n">
-        <v>1054880.582861431</v>
+        <v>1047103.166539476</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>1054880.582861431</v>
+        <v>1047103.166539476</v>
       </c>
       <c r="G51" t="n">
         <v>112.0891521668401</v>
       </c>
       <c r="H51" t="n">
-        <v>703.2761275730801</v>
+        <v>698.5683831820728</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>26299.49088935112</v>
+        <v>26115.81754488312</v>
       </c>
     </row>
     <row r="52">
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>1054880.582861431</v>
+        <v>1047103.166539476</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>1054880.582861431</v>
+        <v>1047103.166539476</v>
       </c>
       <c r="G52" t="n">
         <v>110.9590103341188</v>
@@ -2127,22 +2127,22 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>10755.89116845827</v>
+        <v>10651.31809254118</v>
       </c>
       <c r="E53" t="n">
-        <v>9525</v>
+        <v>9455</v>
       </c>
       <c r="F53" t="n">
-        <v>1054184.575650741</v>
+        <v>1046411.760274167</v>
       </c>
       <c r="G53" t="n">
         <v>109.5463185808171</v>
       </c>
       <c r="H53" t="n">
-        <v>696.0072106893699</v>
+        <v>691.4062653089755</v>
       </c>
       <c r="I53" t="n">
-        <v>1044124.691692972</v>
+        <v>1036451.848446935</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -2159,13 +2159,13 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>10755.89116845827</v>
+        <v>10651.31809254118</v>
       </c>
       <c r="E54" t="n">
-        <v>9525</v>
+        <v>9455</v>
       </c>
       <c r="F54" t="n">
-        <v>1067454.862647024</v>
+        <v>1059584.522851579</v>
       </c>
       <c r="G54" t="n">
         <v>110.9395245646788</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1044124.691692972</v>
+        <v>1036451.848446935</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -2191,13 +2191,13 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>10755.89116845827</v>
+        <v>10651.31809254118</v>
       </c>
       <c r="E55" t="n">
-        <v>9525</v>
+        <v>9455</v>
       </c>
       <c r="F55" t="n">
-        <v>1064299.662472617</v>
+        <v>1056452.510499977</v>
       </c>
       <c r="G55" t="n">
         <v>110.6082699531926</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1044124.691692972</v>
+        <v>1036451.848446935</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -2223,22 +2223,22 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>155.8284972232718</v>
+        <v>163.5970454682572</v>
       </c>
       <c r="E56" t="n">
-        <v>9619</v>
+        <v>9548</v>
       </c>
       <c r="F56" t="n">
-        <v>1080121.931650325</v>
+        <v>1072158.227766522</v>
       </c>
       <c r="G56" t="n">
         <v>112.2742596063106</v>
       </c>
       <c r="H56" t="n">
-        <v>46.28226824179592</v>
+        <v>46.21490368603214</v>
       </c>
       <c r="I56" t="n">
-        <v>1054724.754364207</v>
+        <v>1046939.569494008</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -2255,13 +2255,13 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>29.15923880042026</v>
+        <v>36.92778704540563</v>
       </c>
       <c r="E57" t="n">
-        <v>9620</v>
+        <v>9549</v>
       </c>
       <c r="F57" t="n">
-        <v>1092854.025266632</v>
+        <v>1084796.246466855</v>
       </c>
       <c r="G57" t="n">
         <v>113.5992584228516</v>
@@ -2270,7 +2270,7 @@
         <v>13.07</v>
       </c>
       <c r="I57" t="n">
-        <v>1054851.42362263</v>
+        <v>1047066.238752431</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>29.15923880042026</v>
+        <v>36.92778704540563</v>
       </c>
       <c r="E58" t="n">
-        <v>9620</v>
+        <v>9549</v>
       </c>
       <c r="F58" t="n">
-        <v>1100820.629806279</v>
+        <v>1092704.05382123</v>
       </c>
       <c r="G58" t="n">
         <v>114.4273877928772</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1054851.42362263</v>
+        <v>1047066.238752431</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -2319,25 +2319,25 @@
         <v>-1</v>
       </c>
       <c r="D59" t="n">
-        <v>1066463.3511004</v>
+        <v>1058599.831283554</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>1066463.3511004</v>
+        <v>1058599.831283554</v>
       </c>
       <c r="G59" t="n">
         <v>110.9297742742943</v>
       </c>
       <c r="H59" t="n">
-        <v>710.2366571112266</v>
+        <v>705.5110487271415</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>11582.76823896938</v>
+        <v>11496.66474407818</v>
       </c>
     </row>
     <row r="60">
@@ -2351,22 +2351,22 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>10840.10473534026</v>
+        <v>10771.57708492063</v>
       </c>
       <c r="E60" t="n">
-        <v>9479</v>
+        <v>9409</v>
       </c>
       <c r="F60" t="n">
-        <v>1065760.448893905</v>
+        <v>1057901.603267845</v>
       </c>
       <c r="G60" t="n">
         <v>111.2902567948692</v>
       </c>
       <c r="H60" t="n">
-        <v>702.9022064951389</v>
+        <v>698.2280157097543</v>
       </c>
       <c r="I60" t="n">
-        <v>1055623.24636506</v>
+        <v>1047828.254198634</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -2383,25 +2383,25 @@
         <v>-1</v>
       </c>
       <c r="D61" t="n">
-        <v>1079640.171699484</v>
+        <v>1071678.311293765</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>1079640.171699484</v>
+        <v>1071678.311293765</v>
       </c>
       <c r="G61" t="n">
         <v>112.8295942608443</v>
       </c>
       <c r="H61" t="n">
-        <v>711.6570343991261</v>
+        <v>706.9181914401705</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>13176.82059908425</v>
+        <v>13078.4800102103</v>
       </c>
     </row>
     <row r="62">
@@ -2412,16 +2412,16 @@
         <v>44193</v>
       </c>
       <c r="C62" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>1079640.171699484</v>
+        <v>1071678.311293765</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1079640.171699484</v>
+        <v>1071678.311293765</v>
       </c>
       <c r="G62" t="n">
         <v>115.8011032563625</v>
@@ -2447,22 +2447,22 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>11002.55424735997</v>
+        <v>10892.71473927853</v>
       </c>
       <c r="E63" t="n">
-        <v>9254</v>
+        <v>9186</v>
       </c>
       <c r="F63" t="n">
-        <v>1078929.465552701</v>
+        <v>1070972.313534487</v>
       </c>
       <c r="G63" t="n">
         <v>115.4016545607674</v>
       </c>
       <c r="H63" t="n">
-        <v>710.7061467832048</v>
+        <v>705.9977592771254</v>
       </c>
       <c r="I63" t="n">
-        <v>1068637.617452124</v>
+        <v>1060785.596554486</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -2479,25 +2479,25 @@
         <v>-1</v>
       </c>
       <c r="D64" t="n">
-        <v>1071551.004993054</v>
+        <v>1063647.557180379</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>1071551.004993054</v>
+        <v>1063647.557180379</v>
       </c>
       <c r="G64" t="n">
         <v>114.6806952494053</v>
       </c>
       <c r="H64" t="n">
-        <v>706.703092302798</v>
+        <v>702.0241199366225</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>-8089.166706430493</v>
+        <v>-8030.754113385454</v>
       </c>
     </row>
     <row r="65">
@@ -2511,13 +2511,13 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>1071551.004993054</v>
+        <v>1063647.557180379</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>1071551.004993054</v>
+        <v>1063647.557180379</v>
       </c>
       <c r="G65" t="n">
         <v>114.9437497509627</v>
@@ -2543,13 +2543,13 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>1071551.004993054</v>
+        <v>1063647.557180379</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>1071551.004993054</v>
+        <v>1063647.557180379</v>
       </c>
       <c r="G66" t="n">
         <v>114.1838200437756</v>
@@ -2575,13 +2575,13 @@
         <v>-1</v>
       </c>
       <c r="D67" t="n">
-        <v>1071551.004993054</v>
+        <v>1063647.557180379</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>1071551.004993054</v>
+        <v>1063647.557180379</v>
       </c>
       <c r="G67" t="n">
         <v>116.619484081547</v>
@@ -2607,13 +2607,13 @@
         <v>-1</v>
       </c>
       <c r="D68" t="n">
-        <v>1071551.004993054</v>
+        <v>1063647.557180379</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>1071551.004993054</v>
+        <v>1063647.557180379</v>
       </c>
       <c r="G68" t="n">
         <v>119.9319863573375</v>
@@ -2639,22 +2639,22 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>10888.74002024762</v>
+        <v>10872.99249055128</v>
       </c>
       <c r="E69" t="n">
-        <v>8740</v>
+        <v>8675</v>
       </c>
       <c r="F69" t="n">
-        <v>1070845.081188353</v>
+        <v>1062946.363157979</v>
       </c>
       <c r="G69" t="n">
         <v>121.276469241202</v>
       </c>
       <c r="H69" t="n">
-        <v>705.9238047008633</v>
+        <v>701.1940224004563</v>
       </c>
       <c r="I69" t="n">
-        <v>1060662.264972806</v>
+        <v>1052774.564689828</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -2671,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>10888.74002024762</v>
+        <v>10872.99249055128</v>
       </c>
       <c r="E70" t="n">
-        <v>8740</v>
+        <v>8675</v>
       </c>
       <c r="F70" t="n">
-        <v>1059605.156856313</v>
+        <v>1051790.030940536</v>
       </c>
       <c r="G70" t="n">
         <v>119.9904367089319</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1060662.264972806</v>
+        <v>1052774.564689828</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -2700,28 +2700,28 @@
         <v>44208</v>
       </c>
       <c r="C71" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>1072777.253360486</v>
+        <v>10872.99249055128</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>8675</v>
       </c>
       <c r="F71" t="n">
-        <v>1072777.253360486</v>
+        <v>1065566.41145687</v>
       </c>
       <c r="G71" t="n">
         <v>121.5784920998638</v>
       </c>
       <c r="H71" t="n">
-        <v>707.507612571686</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1052774.564689828</v>
       </c>
       <c r="J71" t="n">
-        <v>1226.248367432039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2735,25 +2735,25 @@
         <v>-1</v>
       </c>
       <c r="D72" t="n">
-        <v>1072777.253360486</v>
+        <v>1053460.628109165</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1072777.253360486</v>
+        <v>1053460.628109165</v>
       </c>
       <c r="G72" t="n">
         <v>120.2632340924571</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>695.9201334512391</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>-10186.92907121417</v>
       </c>
     </row>
     <row r="73">
@@ -2767,13 +2767,13 @@
         <v>-1</v>
       </c>
       <c r="D73" t="n">
-        <v>1072777.253360486</v>
+        <v>1053460.628109165</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>1072777.253360486</v>
+        <v>1053460.628109165</v>
       </c>
       <c r="G73" t="n">
         <v>119.4351058333022</v>
@@ -2799,13 +2799,13 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>1072777.253360486</v>
+        <v>1053460.628109165</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>1072777.253360486</v>
+        <v>1053460.628109165</v>
       </c>
       <c r="G74" t="n">
         <v>117.27224217018</v>
@@ -2831,13 +2831,13 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>1072777.253360486</v>
+        <v>1053460.628109165</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>1072777.253360486</v>
+        <v>1053460.628109165</v>
       </c>
       <c r="G75" t="n">
         <v>116.0836333485809</v>
@@ -2863,13 +2863,13 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>1072777.253360486</v>
+        <v>1053460.628109165</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>1072777.253360486</v>
+        <v>1053460.628109165</v>
       </c>
       <c r="G76" t="n">
         <v>117.7496288086255</v>
@@ -2895,22 +2895,22 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>10898.35239005009</v>
+        <v>10665.36646740076</v>
       </c>
       <c r="E77" t="n">
-        <v>8958</v>
+        <v>8797</v>
       </c>
       <c r="F77" t="n">
-        <v>1072070.600011913</v>
+        <v>1052765.418078199</v>
       </c>
       <c r="G77" t="n">
         <v>118.4608447892233</v>
       </c>
       <c r="H77" t="n">
-        <v>706.6533485731177</v>
+        <v>695.2100309664787</v>
       </c>
       <c r="I77" t="n">
-        <v>1061878.900970436</v>
+        <v>1042795.261641764</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -2927,25 +2927,25 @@
         <v>-1</v>
       </c>
       <c r="D78" t="n">
-        <v>1087848.907801286</v>
+        <v>1068258.888905739</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>1087848.907801286</v>
+        <v>1068258.888905739</v>
       </c>
       <c r="G78" t="n">
         <v>120.3021997850681</v>
       </c>
       <c r="H78" t="n">
-        <v>716.5502634047842</v>
+        <v>704.9290709055465</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>15071.65444079973</v>
+        <v>14798.26079657453</v>
       </c>
     </row>
     <row r="79">
@@ -2959,13 +2959,13 @@
         <v>-1</v>
       </c>
       <c r="D79" t="n">
-        <v>1087848.907801286</v>
+        <v>1068258.888905739</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>1087848.907801286</v>
+        <v>1068258.888905739</v>
       </c>
       <c r="G79" t="n">
         <v>127.1512802551564</v>
@@ -2991,22 +2991,22 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>11127.349396899</v>
+        <v>10920.3749733968</v>
       </c>
       <c r="E80" t="n">
-        <v>8443</v>
+        <v>8291</v>
       </c>
       <c r="F80" t="n">
-        <v>1087133.354198405</v>
+        <v>1067554.95815583</v>
       </c>
       <c r="G80" t="n">
         <v>127.4435632833715</v>
       </c>
       <c r="H80" t="n">
-        <v>715.5536028809036</v>
+        <v>703.9307499094599</v>
       </c>
       <c r="I80" t="n">
-        <v>1076721.558404387</v>
+        <v>1057338.513932343</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>190.2622062415974</v>
+        <v>109.9986803051749</v>
       </c>
       <c r="E81" t="n">
-        <v>8529</v>
+        <v>8376</v>
       </c>
       <c r="F81" t="n">
-        <v>1080259.466022522</v>
+        <v>1060804.060254366</v>
       </c>
       <c r="G81" t="n">
         <v>126.6349166158143</v>
       </c>
       <c r="H81" t="n">
-        <v>46.48436169737602</v>
+        <v>46.40838074740653</v>
       </c>
       <c r="I81" t="n">
-        <v>1087658.645595044</v>
+        <v>1068148.890225434</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -3055,13 +3055,13 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>190.2622062415974</v>
+        <v>109.9986803051749</v>
       </c>
       <c r="E82" t="n">
-        <v>8529</v>
+        <v>8376</v>
       </c>
       <c r="F82" t="n">
-        <v>1087738.056351934</v>
+        <v>1068148.493669673</v>
       </c>
       <c r="G82" t="n">
         <v>127.5117591916628</v>
@@ -3070,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1087658.645595044</v>
+        <v>1068148.890225434</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -3087,25 +3087,25 @@
         <v>-1</v>
       </c>
       <c r="D83" t="n">
-        <v>1066005.146520044</v>
+        <v>1046804.19127761</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>1066005.146520044</v>
+        <v>1046804.19127761</v>
       </c>
       <c r="G83" t="n">
         <v>125.0468694059445</v>
       </c>
       <c r="H83" t="n">
-        <v>709.8648494979806</v>
+        <v>698.3855468865149</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>-21843.76128124096</v>
+        <v>-21454.69762812927</v>
       </c>
     </row>
     <row r="84">
@@ -3119,22 +3119,22 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>10820.97404303382</v>
+        <v>10620.88315289875</v>
       </c>
       <c r="E84" t="n">
-        <v>8385</v>
+        <v>8234</v>
       </c>
       <c r="F84" t="n">
-        <v>1065302.50759991</v>
+        <v>1046112.946039878</v>
       </c>
       <c r="G84" t="n">
         <v>125.7580839066042</v>
       </c>
       <c r="H84" t="n">
-        <v>702.6389201341259</v>
+        <v>691.2452377321875</v>
       </c>
       <c r="I84" t="n">
-        <v>1055184.172477011</v>
+        <v>1036183.308124711</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -3151,22 +3151,22 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>170.0629649569872</v>
+        <v>96.29304003711584</v>
       </c>
       <c r="E85" t="n">
-        <v>8469</v>
+        <v>8317</v>
       </c>
       <c r="F85" t="n">
-        <v>1069340.814921316</v>
+        <v>1050077.771847575</v>
       </c>
       <c r="G85" t="n">
         <v>126.2452180843498</v>
       </c>
       <c r="H85" t="n">
-        <v>46.31275899145123</v>
+        <v>46.23701186060062</v>
       </c>
       <c r="I85" t="n">
-        <v>1065835.083555087</v>
+        <v>1046707.898237573</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -3183,25 +3183,25 @@
         <v>-1</v>
       </c>
       <c r="D86" t="n">
-        <v>1090646.39399198</v>
+        <v>1070999.706991124</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>1090646.39399198</v>
+        <v>1070999.706991124</v>
       </c>
       <c r="G86" t="n">
         <v>128.8464991885701</v>
       </c>
       <c r="H86" t="n">
-        <v>724.6706009768002</v>
+        <v>712.9198002508025</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>24641.24747193581</v>
+        <v>24195.5157135136</v>
       </c>
     </row>
     <row r="87">
@@ -3215,22 +3215,22 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>11118.09103364921</v>
+        <v>10849.36044886493</v>
       </c>
       <c r="E87" t="n">
-        <v>8133</v>
+        <v>7987</v>
       </c>
       <c r="F87" t="n">
-        <v>1089929.157352189</v>
+        <v>1070294.090153301</v>
       </c>
       <c r="G87" t="n">
         <v>132.6461411924923</v>
       </c>
       <c r="H87" t="n">
-        <v>717.2366397911239</v>
+        <v>705.6168378226618</v>
       </c>
       <c r="I87" t="n">
-        <v>1079528.302958331</v>
+        <v>1060150.346542259</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>11118.09103364921</v>
+        <v>10849.36044886493</v>
       </c>
       <c r="E88" t="n">
-        <v>8133</v>
+        <v>7987</v>
       </c>
       <c r="F88" t="n">
-        <v>1104437.283515644</v>
+        <v>1084541.772886304</v>
       </c>
       <c r="G88" t="n">
         <v>134.4300003051758</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1079528.302958331</v>
+        <v>1060150.346542259</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -3279,22 +3279,22 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>104.0605336492088</v>
+        <v>102.9904488649253</v>
       </c>
       <c r="E89" t="n">
-        <v>8215</v>
+        <v>8067</v>
       </c>
       <c r="F89" t="n">
-        <v>1098860.310533649</v>
+        <v>1079064.240448865</v>
       </c>
       <c r="G89" t="n">
         <v>133.75</v>
       </c>
       <c r="H89" t="n">
-        <v>46.5305</v>
+        <v>46.37</v>
       </c>
       <c r="I89" t="n">
-        <v>1090542.333458331</v>
+        <v>1070896.716542259</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -3311,13 +3311,13 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>104.0605336492088</v>
+        <v>102.9904488649253</v>
       </c>
       <c r="E90" t="n">
-        <v>8215</v>
+        <v>8067</v>
       </c>
       <c r="F90" t="n">
-        <v>1091795.405519611</v>
+        <v>1072126.615525159</v>
       </c>
       <c r="G90" t="n">
         <v>132.8899993896484</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1090542.333458331</v>
+        <v>1070896.716542259</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -3343,13 +3343,13 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>104.0605336492088</v>
+        <v>102.9904488649253</v>
       </c>
       <c r="E91" t="n">
-        <v>8215</v>
+        <v>8067</v>
       </c>
       <c r="F91" t="n">
-        <v>1080540.895631916</v>
+        <v>1061074.864914807</v>
       </c>
       <c r="G91" t="n">
         <v>131.5200042724609</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1090542.333458331</v>
+        <v>1070896.716542259</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -3375,25 +3375,25 @@
         <v>-1</v>
       </c>
       <c r="D92" t="n">
-        <v>1086636.994856075</v>
+        <v>1067059.877676985</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>1086636.994856075</v>
+        <v>1067059.877676985</v>
       </c>
       <c r="G92" t="n">
         <v>132.3499984741211</v>
       </c>
       <c r="H92" t="n">
-        <v>722.3031424789428</v>
+        <v>710.5504626144409</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>-4009.399135905318</v>
+        <v>-3939.829314138507</v>
       </c>
     </row>
     <row r="93">
@@ -3407,22 +3407,22 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>11047.71516849275</v>
+        <v>10811.13526423803</v>
       </c>
       <c r="E93" t="n">
-        <v>8119</v>
+        <v>7973</v>
       </c>
       <c r="F93" t="n">
-        <v>1085922.120213049</v>
+        <v>1066356.600397905</v>
       </c>
       <c r="G93" t="n">
         <v>132.3899993896484</v>
       </c>
       <c r="H93" t="n">
-        <v>714.8746430267335</v>
+        <v>703.2772790802002</v>
       </c>
       <c r="I93" t="n">
-        <v>1075589.279687582</v>
+        <v>1056248.742412747</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -3439,22 +3439,22 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>114.092533940752</v>
+        <v>143.2119622360803</v>
       </c>
       <c r="E94" t="n">
-        <v>8201</v>
+        <v>8053</v>
       </c>
       <c r="F94" t="n">
-        <v>1088960.897572393</v>
+        <v>1069340.056368364</v>
       </c>
       <c r="G94" t="n">
         <v>132.7700042724609</v>
       </c>
       <c r="H94" t="n">
-        <v>46.48228421020508</v>
+        <v>46.32296020507813</v>
       </c>
       <c r="I94" t="n">
-        <v>1086522.902322134</v>
+        <v>1066916.665714749</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>114.092533940752</v>
+        <v>143.2119622360803</v>
       </c>
       <c r="E95" t="n">
-        <v>8201</v>
+        <v>8053</v>
       </c>
       <c r="F95" t="n">
-        <v>1092077.255047674</v>
+        <v>1072400.174250139</v>
       </c>
       <c r="G95" t="n">
         <v>133.1500015258789</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1086522.902322134</v>
+        <v>1066916.665714749</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -3503,25 +3503,25 @@
         <v>-1</v>
       </c>
       <c r="D96" t="n">
-        <v>1075943.457858247</v>
+        <v>1056556.27455907</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>1075943.457858247</v>
+        <v>1056556.27455907</v>
       </c>
       <c r="G96" t="n">
         <v>131.2699966430664</v>
       </c>
       <c r="H96" t="n">
-        <v>715.8771454818726</v>
+        <v>704.2203697799683</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>-10693.5369978284</v>
+        <v>-10503.60311791534</v>
       </c>
     </row>
     <row r="97">
@@ -3535,13 +3535,13 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>1075943.457858247</v>
+        <v>1056556.27455907</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>1075943.457858247</v>
+        <v>1056556.27455907</v>
       </c>
       <c r="G97" t="n">
         <v>131.2699966430664</v>
@@ -3567,22 +3567,22 @@
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>10982.36403298712</v>
+        <v>10709.28289738166</v>
       </c>
       <c r="E98" t="n">
-        <v>8134</v>
+        <v>7988</v>
       </c>
       <c r="F98" t="n">
-        <v>1075234.956302885</v>
+        <v>1055859.234588055</v>
       </c>
       <c r="G98" t="n">
         <v>130.8400039672852</v>
       </c>
       <c r="H98" t="n">
-        <v>708.5015553619385</v>
+        <v>697.0399710144044</v>
       </c>
       <c r="I98" t="n">
-        <v>1064961.093825259</v>
+        <v>1045846.991661688</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -3599,22 +3599,22 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>174.2772002631206</v>
+        <v>163.8335483826342</v>
       </c>
       <c r="E99" t="n">
-        <v>8216</v>
+        <v>8068</v>
       </c>
       <c r="F99" t="n">
-        <v>1078442.099648994</v>
+        <v>1059008.136313275</v>
       </c>
       <c r="G99" t="n">
         <v>131.2399978637695</v>
       </c>
       <c r="H99" t="n">
-        <v>46.40700789489746</v>
+        <v>46.24951989746094</v>
       </c>
       <c r="I99" t="n">
-        <v>1075769.180657984</v>
+        <v>1056392.441010687</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -3631,25 +3631,25 @@
         <v>-1</v>
       </c>
       <c r="D100" t="n">
-        <v>1072962.753088606</v>
+        <v>1053626.232631531</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>1072962.753088606</v>
+        <v>1053626.232631531</v>
       </c>
       <c r="G100" t="n">
         <v>130.6599960327148</v>
       </c>
       <c r="H100" t="n">
-        <v>714.0515164428712</v>
+        <v>702.4489087951661</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>-2980.704769641161</v>
+        <v>-2930.041927539045</v>
       </c>
     </row>
     <row r="101">
@@ -3663,13 +3663,13 @@
         <v>-1</v>
       </c>
       <c r="D101" t="n">
-        <v>1072962.753088606</v>
+        <v>1053626.232631531</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>1072962.753088606</v>
+        <v>1053626.232631531</v>
       </c>
       <c r="G101" t="n">
         <v>129.3499984741211</v>
@@ -3695,22 +3695,22 @@
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>10946.32969976587</v>
+        <v>10782.75588825234</v>
       </c>
       <c r="E102" t="n">
-        <v>8142</v>
+        <v>7995</v>
       </c>
       <c r="F102" t="n">
-        <v>1072256.01727606</v>
+        <v>1052930.99368885</v>
       </c>
       <c r="G102" t="n">
         <v>130.3499984741211</v>
       </c>
       <c r="H102" t="n">
-        <v>706.7358125457764</v>
+        <v>695.2389426803589</v>
       </c>
       <c r="I102" t="n">
-        <v>1062016.42338884</v>
+        <v>1042843.476743279</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -3727,22 +3727,22 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>157.1144584755858</v>
+        <v>124.6292474655995</v>
       </c>
       <c r="E103" t="n">
-        <v>8224</v>
+        <v>8076</v>
       </c>
       <c r="F103" t="n">
-        <v>1077583.309282694</v>
+        <v>1058161.344884673</v>
       </c>
       <c r="G103" t="n">
         <v>131.0099945068359</v>
       </c>
       <c r="H103" t="n">
-        <v>46.39569172973633</v>
+        <v>46.31708573303223</v>
       </c>
       <c r="I103" t="n">
-        <v>1072805.63863013</v>
+        <v>1053501.603384065</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -3759,25 +3759,25 @@
         <v>-1</v>
       </c>
       <c r="D104" t="n">
-        <v>1061086.375369852</v>
+        <v>1041960.032764037</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>1061086.375369852</v>
+        <v>1041960.032764037</v>
       </c>
       <c r="G104" t="n">
         <v>129.0900039672852</v>
       </c>
       <c r="H104" t="n">
-        <v>706.9317155761719</v>
+        <v>695.4685232238769</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>-11876.37771875318</v>
+        <v>-11666.19986749417</v>
       </c>
     </row>
     <row r="105">
@@ -3791,22 +3791,22 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>10785.98951902843</v>
+        <v>10586.24562044231</v>
       </c>
       <c r="E105" t="n">
-        <v>8046</v>
+        <v>7901</v>
       </c>
       <c r="F105" t="n">
-        <v>1060386.664964585</v>
+        <v>1041271.671508504</v>
       </c>
       <c r="G105" t="n">
         <v>130.4499969482422</v>
       </c>
       <c r="H105" t="n">
-        <v>699.7104052673341</v>
+        <v>688.3612555328369</v>
       </c>
       <c r="I105" t="n">
-        <v>1050300.385850824</v>
+        <v>1031373.787143594</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -3823,13 +3823,13 @@
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>10785.98951902843</v>
+        <v>10586.24562044231</v>
       </c>
       <c r="E106" t="n">
-        <v>8046</v>
+        <v>7901</v>
       </c>
       <c r="F106" t="n">
-        <v>1062720.073717027</v>
+        <v>1043563.029021932</v>
       </c>
       <c r="G106" t="n">
         <v>130.7400054931641</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1050300.385850824</v>
+        <v>1031373.787143594</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -3852,28 +3852,28 @@
         <v>44258</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D107" t="n">
-        <v>10785.98951902843</v>
+        <v>1050295.735822189</v>
       </c>
       <c r="E107" t="n">
-        <v>8046</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>1070283.271974473</v>
+        <v>1050295.735822189</v>
       </c>
       <c r="G107" t="n">
         <v>131.6800003051758</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>694.1922094467164</v>
       </c>
       <c r="I107" t="n">
-        <v>1050300.385850824</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>8335.703058152809</v>
       </c>
     </row>
     <row r="108">
@@ -3887,22 +3887,22 @@
         <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>129.483578166922</v>
+        <v>10720.78376079868</v>
       </c>
       <c r="E108" t="n">
-        <v>8127</v>
+        <v>7931</v>
       </c>
       <c r="F108" t="n">
-        <v>1064685.196217022</v>
+        <v>1049602.456818355</v>
       </c>
       <c r="G108" t="n">
         <v>130.9899978637695</v>
       </c>
       <c r="H108" t="n">
-        <v>46.3161138961792</v>
+        <v>693.2790038345338</v>
       </c>
       <c r="I108" t="n">
-        <v>1060956.891791685</v>
+        <v>1039574.952061391</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -3919,22 +3919,22 @@
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>129.483578166922</v>
+        <v>193.95545626682</v>
       </c>
       <c r="E109" t="n">
-        <v>8127</v>
+        <v>8012</v>
       </c>
       <c r="F109" t="n">
-        <v>1051682.00861784</v>
+        <v>1036866.63056613</v>
       </c>
       <c r="G109" t="n">
         <v>129.3899993896484</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>46.23835397033692</v>
       </c>
       <c r="I109" t="n">
-        <v>1060956.891791685</v>
+        <v>1050101.780365922</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>44263</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>129.483578166922</v>
+        <v>48.59545535129262</v>
       </c>
       <c r="E110" t="n">
-        <v>8127</v>
+        <v>8013</v>
       </c>
       <c r="F110" t="n">
-        <v>1075250.321018658</v>
+        <v>1060088.372791472</v>
       </c>
       <c r="G110" t="n">
         <v>132.2900009155273</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>13.07</v>
       </c>
       <c r="I110" t="n">
-        <v>1060956.891791685</v>
+        <v>1050247.140366838</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -3983,13 +3983,13 @@
         <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>129.483578166922</v>
+        <v>48.59545535129262</v>
       </c>
       <c r="E111" t="n">
-        <v>8127</v>
+        <v>8013</v>
       </c>
       <c r="F111" t="n">
-        <v>1089228.770939312</v>
+        <v>1073870.742572966</v>
       </c>
       <c r="G111" t="n">
         <v>134.0100021362305</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1060956.891791685</v>
+        <v>1050247.140366838</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -4015,25 +4015,25 @@
         <v>-1</v>
       </c>
       <c r="D112" t="n">
-        <v>1092891.253688035</v>
+        <v>1077480.869306757</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>1092891.253688035</v>
+        <v>1077480.869306757</v>
       </c>
       <c r="G112" t="n">
         <v>134.5499954223633</v>
       </c>
       <c r="H112" t="n">
-        <v>726.042687678528</v>
+        <v>716.8394679916382</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>31804.87831818243</v>
+        <v>27185.13348456728</v>
       </c>
     </row>
     <row r="113">
@@ -4047,13 +4047,13 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>1092891.253688035</v>
+        <v>1077480.869306757</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>1092891.253688035</v>
+        <v>1077480.869306757</v>
       </c>
       <c r="G113" t="n">
         <v>136.25</v>
@@ -4079,22 +4079,22 @@
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>11132.70167387468</v>
+        <v>11001.16879604651</v>
       </c>
       <c r="E114" t="n">
-        <v>8000</v>
+        <v>7887</v>
       </c>
       <c r="F114" t="n">
-        <v>1092172.679701218</v>
+        <v>1076771.457133754</v>
       </c>
       <c r="G114" t="n">
         <v>135.129997253418</v>
       </c>
       <c r="H114" t="n">
-        <v>718.5739868164063</v>
+        <v>709.4121730026245</v>
       </c>
       <c r="I114" t="n">
-        <v>1081758.55201416</v>
+        <v>1066479.70051071</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -4111,22 +4111,22 @@
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>156.0540103538658</v>
+        <v>159.542091334592</v>
       </c>
       <c r="E115" t="n">
-        <v>8081</v>
+        <v>7967</v>
       </c>
       <c r="F115" t="n">
-        <v>1090606.15208622</v>
+        <v>1075226.480758632</v>
       </c>
       <c r="G115" t="n">
         <v>134.9399948120117</v>
       </c>
       <c r="H115" t="n">
-        <v>46.50808374786377</v>
+        <v>46.42711975097657</v>
       </c>
       <c r="I115" t="n">
-        <v>1092735.199677681</v>
+        <v>1077321.327215422</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>156.0540103538658</v>
+        <v>159.542091334592</v>
       </c>
       <c r="E116" t="n">
-        <v>8081</v>
+        <v>7967</v>
       </c>
       <c r="F116" t="n">
-        <v>1090525.386476479</v>
+        <v>1075146.85452267</v>
       </c>
       <c r="G116" t="n">
         <v>134.9300003051758</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1092735.199677681</v>
+        <v>1077321.327215422</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -4175,25 +4175,25 @@
         <v>-1</v>
       </c>
       <c r="D117" t="n">
-        <v>1090689.596460291</v>
+        <v>1075307.761172965</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>1090689.596460291</v>
+        <v>1075307.761172965</v>
       </c>
       <c r="G117" t="n">
         <v>135.0400009155273</v>
       </c>
       <c r="H117" t="n">
-        <v>724.7049484390259</v>
+        <v>715.4682123764039</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>-2201.65722774365</v>
+        <v>-2173.108133792179</v>
       </c>
     </row>
     <row r="118">
@@ -4207,13 +4207,13 @@
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>1090689.596460291</v>
+        <v>1075307.761172965</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>1090689.596460291</v>
+        <v>1075307.761172965</v>
       </c>
       <c r="G118" t="n">
         <v>138.6900024414062</v>
@@ -4239,13 +4239,13 @@
         <v>-1</v>
       </c>
       <c r="D119" t="n">
-        <v>1090689.596460291</v>
+        <v>1075307.761172965</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>1090689.596460291</v>
+        <v>1075307.761172965</v>
       </c>
       <c r="G119" t="n">
         <v>138.2599945068359</v>
@@ -4271,22 +4271,22 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>11091.99343629216</v>
+        <v>10991.64160936607</v>
       </c>
       <c r="E120" t="n">
-        <v>7912</v>
+        <v>7800</v>
       </c>
       <c r="F120" t="n">
-        <v>1089972.318265394</v>
+        <v>1074599.646370108</v>
       </c>
       <c r="G120" t="n">
         <v>136.3600006103516</v>
       </c>
       <c r="H120" t="n">
-        <v>717.2781948974609</v>
+        <v>708.1148028564454</v>
       </c>
       <c r="I120" t="n">
-        <v>1079597.603023999</v>
+        <v>1064316.119563599</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -4303,25 +4303,25 @@
         <v>-1</v>
       </c>
       <c r="D121" t="n">
-        <v>1086724.721587598</v>
+        <v>1071397.031546195</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>1086724.721587598</v>
+        <v>1071397.031546195</v>
       </c>
       <c r="G121" t="n">
         <v>136.0400009155273</v>
       </c>
       <c r="H121" t="n">
-        <v>715.7590923461916</v>
+        <v>706.617204284668</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>-3964.874872693093</v>
+        <v>-3910.729626770131</v>
       </c>
     </row>
     <row r="122">
@@ -4335,13 +4335,13 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>1086724.721587598</v>
+        <v>1071397.031546195</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>1086724.721587598</v>
+        <v>1071397.031546195</v>
       </c>
       <c r="G122" t="n">
         <v>135.1500015258789</v>
@@ -4367,13 +4367,13 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>1086724.721587598</v>
+        <v>1071397.031546195</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>1086724.721587598</v>
+        <v>1071397.031546195</v>
       </c>
       <c r="G123" t="n">
         <v>134.5</v>
@@ -4399,13 +4399,13 @@
         <v>-1</v>
       </c>
       <c r="D124" t="n">
-        <v>1086724.721587598</v>
+        <v>1071397.031546195</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>1086724.721587598</v>
+        <v>1071397.031546195</v>
       </c>
       <c r="G124" t="n">
         <v>137.1199951171875</v>
@@ -4431,13 +4431,13 @@
         <v>-1</v>
       </c>
       <c r="D125" t="n">
-        <v>1086724.721587598</v>
+        <v>1071397.031546195</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>1086724.721587598</v>
+        <v>1071397.031546195</v>
       </c>
       <c r="G125" t="n">
         <v>137.6999969482422</v>
@@ -4463,22 +4463,22 @@
         <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>10994.48842112165</v>
+        <v>10858.54816159069</v>
       </c>
       <c r="E126" t="n">
-        <v>7647</v>
+        <v>7539</v>
       </c>
       <c r="F126" t="n">
-        <v>1086009.762423197</v>
+        <v>1070691.181965912</v>
       </c>
       <c r="G126" t="n">
         <v>140.5800018310547</v>
       </c>
       <c r="H126" t="n">
-        <v>714.9591644012452</v>
+        <v>705.8495802825929</v>
       </c>
       <c r="I126" t="n">
-        <v>1075730.233166476</v>
+        <v>1060538.483384604</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -4495,25 +4495,25 @@
         <v>-1</v>
       </c>
       <c r="D127" t="n">
-        <v>1086288.295802285</v>
+        <v>1070964.793649571</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>1086288.295802285</v>
+        <v>1070964.793649571</v>
       </c>
       <c r="G127" t="n">
         <v>140.7099990844727</v>
       </c>
       <c r="H127" t="n">
-        <v>715.5556177993775</v>
+        <v>706.4376098587036</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>-436.4257853133604</v>
+        <v>-432.2378966233227</v>
       </c>
     </row>
     <row r="128">
@@ -4527,13 +4527,13 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>1086288.295802285</v>
+        <v>1070964.793649571</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>1086288.295802285</v>
+        <v>1070964.793649571</v>
       </c>
       <c r="G128" t="n">
         <v>140.5800018310547</v>
@@ -4559,13 +4559,13 @@
         <v>-1</v>
       </c>
       <c r="D129" t="n">
-        <v>1086288.295802285</v>
+        <v>1070964.793649571</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>1086288.295802285</v>
+        <v>1070964.793649571</v>
       </c>
       <c r="G129" t="n">
         <v>141.2600021362305</v>
@@ -4591,13 +4591,13 @@
         <v>-1</v>
       </c>
       <c r="D130" t="n">
-        <v>1086288.295802285</v>
+        <v>1070964.793649571</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>1086288.295802285</v>
+        <v>1070964.793649571</v>
       </c>
       <c r="G130" t="n">
         <v>140.5900039672852</v>
@@ -4623,13 +4623,13 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>1086288.295802285</v>
+        <v>1070964.793649571</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>1086288.295802285</v>
+        <v>1070964.793649571</v>
       </c>
       <c r="G131" t="n">
         <v>140.5</v>
@@ -4655,13 +4655,13 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>1086288.295802285</v>
+        <v>1070964.793649571</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>1086288.295802285</v>
+        <v>1070964.793649571</v>
       </c>
       <c r="G132" t="n">
         <v>139.9600067138672</v>
@@ -4687,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>1086288.295802285</v>
+        <v>1070964.793649571</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>1086288.295802285</v>
+        <v>1070964.793649571</v>
       </c>
       <c r="G133" t="n">
         <v>139.8899993896484</v>
@@ -4719,13 +4719,13 @@
         <v>-1</v>
       </c>
       <c r="D134" t="n">
-        <v>1086288.295802285</v>
+        <v>1070964.793649571</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>1086288.295802285</v>
+        <v>1070964.793649571</v>
       </c>
       <c r="G134" t="n">
         <v>138.9800033569336</v>
@@ -4748,16 +4748,16 @@
         <v>44300</v>
       </c>
       <c r="C135" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>1086288.295802285</v>
+        <v>1070964.793649571</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>1086288.295802285</v>
+        <v>1070964.793649571</v>
       </c>
       <c r="G135" t="n">
         <v>138.75</v>
@@ -4783,13 +4783,13 @@
         <v>-1</v>
       </c>
       <c r="D136" t="n">
-        <v>1086288.295802285</v>
+        <v>1070964.793649571</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>1086288.295802285</v>
+        <v>1070964.793649571</v>
       </c>
       <c r="G136" t="n">
         <v>139.5800018310547</v>
@@ -4815,13 +4815,13 @@
         <v>-1</v>
       </c>
       <c r="D137" t="n">
-        <v>1086288.295802285</v>
+        <v>1070964.793649571</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>1086288.295802285</v>
+        <v>1070964.793649571</v>
       </c>
       <c r="G137" t="n">
         <v>142.8100051879883</v>
@@ -4847,22 +4847,22 @@
         <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>11063.27277617084</v>
+        <v>10925.57673964541</v>
       </c>
       <c r="E138" t="n">
-        <v>7434</v>
+        <v>7329</v>
       </c>
       <c r="F138" t="n">
-        <v>1085573.639582201</v>
+        <v>1070259.243449545</v>
       </c>
       <c r="G138" t="n">
         <v>144.5400009155273</v>
       </c>
       <c r="H138" t="n">
-        <v>714.6562200836181</v>
+        <v>705.5502000259401</v>
       </c>
       <c r="I138" t="n">
-        <v>1075225.023026114</v>
+        <v>1060039.216909926</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
@@ -4879,25 +4879,25 @@
         <v>-1</v>
       </c>
       <c r="D139" t="n">
-        <v>1067696.765024642</v>
+        <v>1052633.87912585</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>1067696.765024642</v>
+        <v>1052633.87912585</v>
       </c>
       <c r="G139" t="n">
         <v>142.2300033569336</v>
       </c>
       <c r="H139" t="n">
-        <v>704.3527069732667</v>
+        <v>695.3922167617798</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>-18591.53077764274</v>
+        <v>-18330.91452372144</v>
       </c>
     </row>
     <row r="140">
@@ -4911,13 +4911,13 @@
         <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>1067696.765024642</v>
+        <v>1052633.87912585</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>1067696.765024642</v>
+        <v>1052633.87912585</v>
       </c>
       <c r="G140" t="n">
         <v>140.5900039672852</v>
@@ -4943,13 +4943,13 @@
         <v>-1</v>
       </c>
       <c r="D141" t="n">
-        <v>1067696.765024642</v>
+        <v>1052633.87912585</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>1067696.765024642</v>
+        <v>1052633.87912585</v>
       </c>
       <c r="G141" t="n">
         <v>141.8499984741211</v>
@@ -4975,13 +4975,13 @@
         <v>-1</v>
       </c>
       <c r="D142" t="n">
-        <v>1067696.765024642</v>
+        <v>1052633.87912585</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>1067696.765024642</v>
+        <v>1052633.87912585</v>
       </c>
       <c r="G142" t="n">
         <v>141.9300003051758</v>
@@ -5007,13 +5007,13 @@
         <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>1067696.765024642</v>
+        <v>1052633.87912585</v>
       </c>
       <c r="E143" t="n">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>1067696.765024642</v>
+        <v>1052633.87912585</v>
       </c>
       <c r="G143" t="n">
         <v>142.6800003051758</v>
@@ -5039,13 +5039,13 @@
         <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>1067696.765024642</v>
+        <v>1052633.87912585</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>1067696.765024642</v>
+        <v>1052633.87912585</v>
       </c>
       <c r="G144" t="n">
         <v>142.2300033569336</v>
@@ -5071,13 +5071,13 @@
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>1067696.765024642</v>
+        <v>1052633.87912585</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>1067696.765024642</v>
+        <v>1052633.87912585</v>
       </c>
       <c r="G145" t="n">
         <v>142.0200042724609</v>
@@ -5103,13 +5103,13 @@
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>1067696.765024642</v>
+        <v>1052633.87912585</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>1067696.765024642</v>
+        <v>1052633.87912585</v>
       </c>
       <c r="G146" t="n">
         <v>140.129997253418</v>
@@ -5135,13 +5135,13 @@
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>1067696.765024642</v>
+        <v>1052633.87912585</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>1067696.765024642</v>
+        <v>1052633.87912585</v>
       </c>
       <c r="G147" t="n">
         <v>139.6300048828125</v>
@@ -5167,22 +5167,22 @@
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>10799.15948266812</v>
+        <v>10775.58188856954</v>
       </c>
       <c r="E148" t="n">
-        <v>7519</v>
+        <v>7412</v>
       </c>
       <c r="F148" t="n">
-        <v>1066993.098661135</v>
+        <v>1051939.230936421</v>
       </c>
       <c r="G148" t="n">
         <v>140.4700012207031</v>
       </c>
       <c r="H148" t="n">
-        <v>703.6663635070802</v>
+        <v>694.648189428711</v>
       </c>
       <c r="I148" t="n">
-        <v>1056897.605541974</v>
+        <v>1041858.29723728</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
@@ -5199,13 +5199,13 @@
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>95.24524633236317</v>
+        <v>71.6676522337809</v>
       </c>
       <c r="E149" t="n">
-        <v>7596</v>
+        <v>7489</v>
       </c>
       <c r="F149" t="n">
-        <v>1051457.575110834</v>
+        <v>1036624.127941235</v>
       </c>
       <c r="G149" t="n">
         <v>138.4099960327148</v>
@@ -5214,7 +5214,7 @@
         <v>46.34454181671143</v>
       </c>
       <c r="I149" t="n">
-        <v>1067601.51977831</v>
+        <v>1052562.211473616</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -5231,25 +5231,25 @@
         <v>-1</v>
       </c>
       <c r="D150" t="n">
-        <v>1051212.33364123</v>
+        <v>1036381.355690594</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>1051212.33364123</v>
+        <v>1036381.355690594</v>
       </c>
       <c r="G150" t="n">
         <v>138.4700012207031</v>
       </c>
       <c r="H150" t="n">
-        <v>701.0408775634766</v>
+        <v>692.1511034851075</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>-16484.4313834121</v>
+        <v>-16252.52343525551</v>
       </c>
     </row>
     <row r="151">
@@ -5263,22 +5263,22 @@
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>10630.85180798405</v>
+        <v>10536.00966022015</v>
       </c>
       <c r="E151" t="n">
-        <v>7414</v>
+        <v>7309</v>
       </c>
       <c r="F151" t="n">
-        <v>1050518.451081666</v>
+        <v>1035696.309510684</v>
       </c>
       <c r="G151" t="n">
         <v>140.2599945068359</v>
       </c>
       <c r="H151" t="n">
-        <v>693.882559564209</v>
+        <v>685.0461799102783</v>
       </c>
       <c r="I151" t="n">
-        <v>1040581.481833246</v>
+        <v>1025845.346030374</v>
       </c>
       <c r="J151" t="n">
         <v>0</v>
@@ -5292,28 +5292,28 @@
         <v>44323</v>
       </c>
       <c r="C152" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>1069682.169071317</v>
+        <v>10536.00966022015</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>7309</v>
       </c>
       <c r="F152" t="n">
-        <v>1069682.169071317</v>
+        <v>1055284.431741214</v>
       </c>
       <c r="G152" t="n">
         <v>142.9399948120117</v>
       </c>
       <c r="H152" t="n">
-        <v>705.8042729217531</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>1025845.346030374</v>
       </c>
       <c r="J152" t="n">
-        <v>18469.83543008729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -5327,25 +5327,25 @@
         <v>-1</v>
       </c>
       <c r="D153" t="n">
-        <v>1069682.169071317</v>
+        <v>1061965.309038306</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>1069682.169071317</v>
+        <v>1061965.309038306</v>
       </c>
       <c r="G153" t="n">
         <v>143.9499969482422</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>701.2283166168213</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>0</v>
+        <v>25583.95334771124</v>
       </c>
     </row>
     <row r="154">
@@ -5359,13 +5359,13 @@
         <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>1069682.169071317</v>
+        <v>1061965.309038306</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>1069682.169071317</v>
+        <v>1061965.309038306</v>
       </c>
       <c r="G154" t="n">
         <v>140.4499969482422</v>
@@ -5391,13 +5391,13 @@
         <v>-1</v>
       </c>
       <c r="D155" t="n">
-        <v>1069682.169071317</v>
+        <v>1061965.309038306</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>1069682.169071317</v>
+        <v>1061965.309038306</v>
       </c>
       <c r="G155" t="n">
         <v>139.5</v>
@@ -5423,13 +5423,13 @@
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>1069682.169071317</v>
+        <v>1061965.309038306</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>1069682.169071317</v>
+        <v>1061965.309038306</v>
       </c>
       <c r="G156" t="n">
         <v>138.5399932861328</v>
@@ -5455,13 +5455,13 @@
         <v>-1</v>
       </c>
       <c r="D157" t="n">
-        <v>1069682.169071317</v>
+        <v>1061965.309038306</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>1069682.169071317</v>
+        <v>1061965.309038306</v>
       </c>
       <c r="G157" t="n">
         <v>142.6700057983398</v>
@@ -5487,22 +5487,22 @@
         <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>10935.49586118535</v>
+        <v>10799.00144964599</v>
       </c>
       <c r="E158" t="n">
-        <v>7402</v>
+        <v>7349</v>
       </c>
       <c r="F158" t="n">
-        <v>1068977.393932474</v>
+        <v>1061265.07939154</v>
       </c>
       <c r="G158" t="n">
         <v>142.9400024414062</v>
       </c>
       <c r="H158" t="n">
-        <v>704.7751388427735</v>
+        <v>700.2296467651367</v>
       </c>
       <c r="I158" t="n">
-        <v>1058746.673210132</v>
+        <v>1051166.30758866</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
@@ -5519,25 +5519,25 @@
         <v>-1</v>
       </c>
       <c r="D159" t="n">
-        <v>1052441.847476743</v>
+        <v>1044847.430343558</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>1052441.847476743</v>
+        <v>1044847.430343558</v>
       </c>
       <c r="G159" t="n">
         <v>140.8000030517578</v>
       </c>
       <c r="H159" t="n">
-        <v>695.2709735534669</v>
+        <v>690.793533456421</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>-17240.32159457402</v>
+        <v>-17117.87869474792</v>
       </c>
     </row>
     <row r="160">
@@ -5551,13 +5551,13 @@
         <v>-1</v>
       </c>
       <c r="D160" t="n">
-        <v>1052441.847476743</v>
+        <v>1044847.430343558</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>1052441.847476743</v>
+        <v>1044847.430343558</v>
       </c>
       <c r="G160" t="n">
         <v>135.3800048828125</v>
@@ -5583,13 +5583,13 @@
         <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>1052441.847476743</v>
+        <v>1044847.430343558</v>
       </c>
       <c r="E161" t="n">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>1052441.847476743</v>
+        <v>1044847.430343558</v>
       </c>
       <c r="G161" t="n">
         <v>133.7899932861328</v>
@@ -5615,22 +5615,22 @@
         <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>10692.396452854</v>
+        <v>10699.49770086974</v>
       </c>
       <c r="E162" t="n">
-        <v>7674</v>
+        <v>7618</v>
       </c>
       <c r="F162" t="n">
-        <v>1051747.264555881</v>
+        <v>1044157.405598819</v>
       </c>
       <c r="G162" t="n">
         <v>135.6600036621094</v>
       </c>
       <c r="H162" t="n">
-        <v>694.5829208618164</v>
+        <v>690.0247447387696</v>
       </c>
       <c r="I162" t="n">
-        <v>1041749.451023889</v>
+        <v>1034147.932642688</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
@@ -5647,25 +5647,25 @@
         <v>-1</v>
       </c>
       <c r="D163" t="n">
-        <v>1058261.93222313</v>
+        <v>1050624.022889554</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>1058261.93222313</v>
+        <v>1050624.022889554</v>
       </c>
       <c r="G163" t="n">
         <v>136.6000061035156</v>
       </c>
       <c r="H163" t="n">
-        <v>698.9110681030274</v>
+        <v>694.3213078979492</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>5820.084746386739</v>
+        <v>5776.592545996071</v>
       </c>
     </row>
     <row r="164">
@@ -5679,13 +5679,13 @@
         <v>-1</v>
       </c>
       <c r="D164" t="n">
-        <v>1058261.93222313</v>
+        <v>1050624.022889554</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>1058261.93222313</v>
+        <v>1050624.022889554</v>
       </c>
       <c r="G164" t="n">
         <v>135.1199951171875</v>
@@ -5711,13 +5711,13 @@
         <v>0</v>
       </c>
       <c r="D165" t="n">
-        <v>1058261.93222313</v>
+        <v>1050624.022889554</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>1058261.93222313</v>
+        <v>1050624.022889554</v>
       </c>
       <c r="G165" t="n">
         <v>132.9400024414062</v>
@@ -5743,22 +5743,22 @@
         <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>10794.96754303945</v>
+        <v>10680.68992086484</v>
       </c>
       <c r="E166" t="n">
-        <v>7796</v>
+        <v>7740</v>
       </c>
       <c r="F166" t="n">
-        <v>1057563.920851145</v>
+        <v>1049930.522989712</v>
       </c>
       <c r="G166" t="n">
         <v>134.2700042724609</v>
       </c>
       <c r="H166" t="n">
-        <v>698.0113719848633</v>
+        <v>693.4998998413087</v>
       </c>
       <c r="I166" t="n">
-        <v>1047466.96468009</v>
+        <v>1039943.332968689</v>
       </c>
       <c r="J166" t="n">
         <v>0</v>
@@ -5775,13 +5775,13 @@
         <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>191.9136981496212</v>
+        <v>77.63607597500587</v>
       </c>
       <c r="E167" t="n">
-        <v>7875</v>
+        <v>7819</v>
       </c>
       <c r="F167" t="n">
-        <v>1052528.142068816</v>
+        <v>1044930.58460045</v>
       </c>
       <c r="G167" t="n">
         <v>133.629997253418</v>
@@ -5790,7 +5790,7 @@
         <v>46.28406186981201</v>
       </c>
       <c r="I167" t="n">
-        <v>1058070.01852498</v>
+        <v>1050546.386813579</v>
       </c>
       <c r="J167" t="n">
         <v>0</v>
@@ -5804,16 +5804,16 @@
         <v>44348</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>191.9136981496212</v>
+        <v>77.63607597500587</v>
       </c>
       <c r="E168" t="n">
-        <v>7875</v>
+        <v>7819</v>
       </c>
       <c r="F168" t="n">
-        <v>1062844.432924224</v>
+        <v>1055173.51516533</v>
       </c>
       <c r="G168" t="n">
         <v>134.9400024414062</v>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>1058070.01852498</v>
+        <v>1050546.386813579</v>
       </c>
       <c r="J168" t="n">
         <v>0</v>
@@ -5839,22 +5839,22 @@
         <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>43.40369570821493</v>
+        <v>77.63607597500587</v>
       </c>
       <c r="E169" t="n">
-        <v>7876</v>
+        <v>7819</v>
       </c>
       <c r="F169" t="n">
-        <v>1066768.862924224</v>
+        <v>1059083.01516533</v>
       </c>
       <c r="G169" t="n">
         <v>135.4400024414062</v>
       </c>
       <c r="H169" t="n">
-        <v>13.07</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1058218.528527422</v>
+        <v>1050546.386813579</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
@@ -5868,28 +5868,28 @@
         <v>44350</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D170" t="n">
-        <v>43.40369570821493</v>
+        <v>1056971.084005139</v>
       </c>
       <c r="E170" t="n">
-        <v>7876</v>
+        <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>1065351.180520659</v>
+        <v>1056971.084005139</v>
       </c>
       <c r="G170" t="n">
         <v>135.2600021362305</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>704.5087740219117</v>
       </c>
       <c r="I170" t="n">
-        <v>1058218.528527422</v>
+        <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>0</v>
+        <v>6347.0611155855</v>
       </c>
     </row>
     <row r="171">
@@ -5903,13 +5903,13 @@
         <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>43.40369570821493</v>
+        <v>1056971.084005139</v>
       </c>
       <c r="E171" t="n">
-        <v>7876</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>1065981.214852935</v>
+        <v>1056971.084005139</v>
       </c>
       <c r="G171" t="n">
         <v>135.3399963378906</v>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>1058218.528527422</v>
+        <v>0</v>
       </c>
       <c r="J171" t="n">
         <v>0</v>
@@ -5935,13 +5935,13 @@
         <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>43.40369570821493</v>
+        <v>1056971.084005139</v>
       </c>
       <c r="E172" t="n">
-        <v>7876</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>1071021.850045806</v>
+        <v>1056971.084005139</v>
       </c>
       <c r="G172" t="n">
         <v>135.9799957275391</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>1058218.528527422</v>
+        <v>0</v>
       </c>
       <c r="J172" t="n">
         <v>0</v>
@@ -5967,22 +5967,22 @@
         <v>1</v>
       </c>
       <c r="D173" t="n">
-        <v>43.40369570821493</v>
+        <v>10785.33153062125</v>
       </c>
       <c r="E173" t="n">
-        <v>7876</v>
+        <v>7675</v>
       </c>
       <c r="F173" t="n">
-        <v>1072912.133309966</v>
+        <v>1056273.840899518</v>
       </c>
       <c r="G173" t="n">
         <v>136.2200012207031</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>697.2431056213379</v>
       </c>
       <c r="I173" t="n">
-        <v>1058218.528527422</v>
+        <v>1046185.752474518</v>
       </c>
       <c r="J173" t="n">
         <v>0</v>
@@ -5999,22 +5999,22 @@
         <v>1</v>
       </c>
       <c r="D174" t="n">
-        <v>43.40369570821493</v>
+        <v>132.5774046233232</v>
       </c>
       <c r="E174" t="n">
-        <v>7876</v>
+        <v>7753</v>
       </c>
       <c r="F174" t="n">
-        <v>1071021.910134917</v>
+        <v>1054385.54343093</v>
       </c>
       <c r="G174" t="n">
         <v>135.9800033569336</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>46.3138641571045</v>
       </c>
       <c r="I174" t="n">
-        <v>1058218.528527422</v>
+        <v>1056838.506600516</v>
       </c>
       <c r="J174" t="n">
         <v>0</v>
@@ -6031,25 +6031,25 @@
         <v>-1</v>
       </c>
       <c r="D175" t="n">
-        <v>1068262.824872197</v>
+        <v>1051668.454567056</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>1068262.824872197</v>
+        <v>1051668.454567056</v>
       </c>
       <c r="G175" t="n">
         <v>135.7200012207031</v>
       </c>
       <c r="H175" t="n">
-        <v>711.3084377685547</v>
+        <v>701.2923016784669</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>10000.89264906757</v>
+        <v>-5302.62943808292</v>
       </c>
     </row>
     <row r="176">
@@ -6063,22 +6063,22 @@
         <v>1</v>
       </c>
       <c r="D176" t="n">
-        <v>10865.55028565713</v>
+        <v>10692.2563859801</v>
       </c>
       <c r="E176" t="n">
-        <v>7791</v>
+        <v>7670</v>
       </c>
       <c r="F176" t="n">
-        <v>1067558.858887037</v>
+        <v>1050974.335319696</v>
       </c>
       <c r="G176" t="n">
         <v>135.629997253418</v>
       </c>
       <c r="H176" t="n">
-        <v>703.9659851608277</v>
+        <v>694.1192473602295</v>
       </c>
       <c r="I176" t="n">
-        <v>1057397.27458654</v>
+        <v>1040976.198181076</v>
       </c>
       <c r="J176" t="n">
         <v>0</v>
@@ -6095,25 +6095,25 @@
         <v>-1</v>
       </c>
       <c r="D177" t="n">
-        <v>1076899.319201418</v>
+        <v>1060168.644992563</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>1076899.319201418</v>
+        <v>1060168.644992563</v>
       </c>
       <c r="G177" t="n">
         <v>136.9200057983398</v>
       </c>
       <c r="H177" t="n">
-        <v>709.9962591049195</v>
+        <v>700.0558666839601</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>8636.494329220615</v>
+        <v>8500.190425506444</v>
       </c>
     </row>
     <row r="178">
@@ -6127,13 +6127,13 @@
         <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>1076899.319201418</v>
+        <v>1060168.644992563</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>1076899.319201418</v>
+        <v>1060168.644992563</v>
       </c>
       <c r="G178" t="n">
         <v>137.6500015258789</v>
@@ -6159,22 +6159,22 @@
         <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>10990.00376921277</v>
+        <v>10816.05756707138</v>
       </c>
       <c r="E179" t="n">
-        <v>7725</v>
+        <v>7605</v>
       </c>
       <c r="F179" t="n">
-        <v>1076190.249054247</v>
+        <v>1059469.502925348</v>
       </c>
       <c r="G179" t="n">
         <v>137.8899993896484</v>
       </c>
       <c r="H179" t="n">
-        <v>709.0701471710205</v>
+        <v>699.1420672149659</v>
       </c>
       <c r="I179" t="n">
-        <v>1065909.315432205</v>
+        <v>1049352.587425491</v>
       </c>
       <c r="J179" t="n">
         <v>0</v>
@@ -6191,25 +6191,25 @@
         <v>-1</v>
       </c>
       <c r="D180" t="n">
-        <v>1071543.776264597</v>
+        <v>1054894.121751848</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>1071543.776264597</v>
+        <v>1054894.121751848</v>
       </c>
       <c r="G180" t="n">
         <v>137.379997253418</v>
       </c>
       <c r="H180" t="n">
-        <v>706.7062872695923</v>
+        <v>696.8149274673463</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>-5355.54293682077</v>
+        <v>-5274.523240715032</v>
       </c>
     </row>
     <row r="181">
@@ -6223,13 +6223,13 @@
         <v>-1</v>
       </c>
       <c r="D181" t="n">
-        <v>1071543.776264597</v>
+        <v>1054894.121751848</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>1071543.776264597</v>
+        <v>1054894.121751848</v>
       </c>
       <c r="G181" t="n">
         <v>135.6599960327148</v>
@@ -6255,22 +6255,22 @@
         <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>10939.24268403995</v>
+        <v>10748.71795081313</v>
       </c>
       <c r="E182" t="n">
-        <v>7861</v>
+        <v>7739</v>
       </c>
       <c r="F182" t="n">
-        <v>1070837.887077961</v>
+        <v>1054198.102121345</v>
       </c>
       <c r="G182" t="n">
         <v>134.8300018310547</v>
       </c>
       <c r="H182" t="n">
-        <v>705.8891866363525</v>
+        <v>696.0196305023194</v>
       </c>
       <c r="I182" t="n">
-        <v>1060604.533580557</v>
+        <v>1044145.403801035</v>
       </c>
       <c r="J182" t="n">
         <v>0</v>
@@ -6287,25 +6287,25 @@
         <v>-1</v>
       </c>
       <c r="D183" t="n">
-        <v>1080580.869198609</v>
+        <v>1063788.790930873</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>1080580.869198609</v>
+        <v>1063788.790930873</v>
       </c>
       <c r="G183" t="n">
         <v>136.1600036621094</v>
       </c>
       <c r="H183" t="n">
-        <v>712.1622732727052</v>
+        <v>702.1953610046387</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>9037.092934011947</v>
+        <v>8894.669179025223</v>
       </c>
     </row>
     <row r="184">
@@ -6319,22 +6319,22 @@
         <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>11039.20899464796</v>
+        <v>10761.43355165396</v>
       </c>
       <c r="E184" t="n">
-        <v>7836</v>
+        <v>7715</v>
       </c>
       <c r="F184" t="n">
-        <v>1079869.620951435</v>
+        <v>1063087.44532381</v>
       </c>
       <c r="G184" t="n">
         <v>136.4000015258789</v>
       </c>
       <c r="H184" t="n">
-        <v>711.2482471740723</v>
+        <v>701.3456070632935</v>
       </c>
       <c r="I184" t="n">
-        <v>1069541.660203961</v>
+        <v>1053027.357379219</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
@@ -6351,25 +6351,25 @@
         <v>-1</v>
       </c>
       <c r="D185" t="n">
-        <v>1077278.877817719</v>
+        <v>1060535.627147876</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>1077278.877817719</v>
+        <v>1060535.627147876</v>
       </c>
       <c r="G185" t="n">
         <v>136.1600036621094</v>
       </c>
       <c r="H185" t="n">
-        <v>710.1198732177735</v>
+        <v>700.2346569519043</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>-3301.9913808899</v>
+        <v>-3253.163782997057</v>
       </c>
     </row>
     <row r="186">
@@ -6383,13 +6383,13 @@
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>1077278.877817719</v>
+        <v>1060535.627147876</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>1077278.877817719</v>
+        <v>1060535.627147876</v>
       </c>
       <c r="G186" t="n">
         <v>135.7300033569336</v>
@@ -6415,22 +6415,22 @@
         <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>10900.26296933973</v>
+        <v>10788.26480671995</v>
       </c>
       <c r="E187" t="n">
-        <v>7822</v>
+        <v>7700</v>
       </c>
       <c r="F187" t="n">
-        <v>1076569.526259745</v>
+        <v>1059836.248357745</v>
       </c>
       <c r="G187" t="n">
         <v>136.2399978637695</v>
       </c>
       <c r="H187" t="n">
-        <v>709.3515579742432</v>
+        <v>699.3787901306152</v>
       </c>
       <c r="I187" t="n">
-        <v>1066378.61484838</v>
+        <v>1049747.362341156</v>
       </c>
       <c r="J187" t="n">
         <v>0</v>
@@ -6447,13 +6447,13 @@
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>10900.26296933973</v>
+        <v>10788.26480671995</v>
       </c>
       <c r="E188" t="n">
-        <v>7822</v>
+        <v>7700</v>
       </c>
       <c r="F188" t="n">
-        <v>1065853.36477598</v>
+        <v>1049287.227209064</v>
       </c>
       <c r="G188" t="n">
         <v>134.8699951171875</v>
@@ -6462,7 +6462,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>1066378.61484838</v>
+        <v>1049747.362341156</v>
       </c>
       <c r="J188" t="n">
         <v>0</v>
@@ -6479,25 +6479,25 @@
         <v>-1</v>
       </c>
       <c r="D189" t="n">
-        <v>1058896.633259687</v>
+        <v>1042437.909058276</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>1058896.633259687</v>
+        <v>1042437.909058276</v>
       </c>
       <c r="G189" t="n">
         <v>134.0699996948242</v>
       </c>
       <c r="H189" t="n">
-        <v>699.167322567749</v>
+        <v>689.353398590088</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>-18382.24455803225</v>
+        <v>-18097.71808959963</v>
       </c>
     </row>
     <row r="190">
@@ -6511,22 +6511,22 @@
         <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>10743.06249652182</v>
+        <v>10654.35516018673</v>
       </c>
       <c r="E190" t="n">
-        <v>7811</v>
+        <v>7689</v>
       </c>
       <c r="F190" t="n">
-        <v>1058198.210171082</v>
+        <v>1041749.302090118</v>
       </c>
       <c r="G190" t="n">
         <v>134.1000061035156</v>
       </c>
       <c r="H190" t="n">
-        <v>698.4230886047363</v>
+        <v>688.606968157959</v>
       </c>
       <c r="I190" t="n">
-        <v>1048153.570763165</v>
+        <v>1031783.55389809</v>
       </c>
       <c r="J190" t="n">
         <v>0</v>
@@ -6543,22 +6543,22 @@
         <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>83.0944271385833</v>
+        <v>128.817699276697</v>
       </c>
       <c r="E191" t="n">
-        <v>7890</v>
+        <v>7767</v>
       </c>
       <c r="F191" t="n">
-        <v>1060104.582387954</v>
+        <v>1043625.255847775</v>
       </c>
       <c r="G191" t="n">
         <v>134.3499984741211</v>
       </c>
       <c r="H191" t="n">
-        <v>46.31818992767334</v>
+        <v>46.23757992858887</v>
       </c>
       <c r="I191" t="n">
-        <v>1058813.538832549</v>
+        <v>1042309.091359</v>
       </c>
       <c r="J191" t="n">
         <v>0</v>
@@ -6575,25 +6575,25 @@
         <v>-1</v>
       </c>
       <c r="D192" t="n">
-        <v>1052144.189213531</v>
+        <v>1035787.869582155</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>1052144.189213531</v>
+        <v>1035787.869582155</v>
       </c>
       <c r="G192" t="n">
         <v>133.4300003051758</v>
       </c>
       <c r="H192" t="n">
-        <v>701.6076214447021</v>
+        <v>691.7604874221802</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>-6752.444046156248</v>
+        <v>-6650.039476121543</v>
       </c>
     </row>
     <row r="193">
@@ -6607,13 +6607,13 @@
         <v>-1</v>
       </c>
       <c r="D193" t="n">
-        <v>1052144.189213531</v>
+        <v>1035787.869582155</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>1052144.189213531</v>
+        <v>1035787.869582155</v>
       </c>
       <c r="G193" t="n">
         <v>132.5400009155273</v>
@@ -6639,13 +6639,13 @@
         <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>1052144.189213531</v>
+        <v>1035787.869582155</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>1052144.189213531</v>
+        <v>1035787.869582155</v>
       </c>
       <c r="G194" t="n">
         <v>133.129997253418</v>
@@ -6671,22 +6671,22 @@
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>10682.61033328183</v>
+        <v>10499.41827163691</v>
       </c>
       <c r="E195" t="n">
-        <v>7920</v>
+        <v>7797</v>
       </c>
       <c r="F195" t="n">
-        <v>1051449.778912383</v>
+        <v>1035103.157338715</v>
       </c>
       <c r="G195" t="n">
         <v>131.4099960327148</v>
       </c>
       <c r="H195" t="n">
-        <v>694.4103011474609</v>
+        <v>684.7122434402467</v>
       </c>
       <c r="I195" t="n">
-        <v>1041461.578880249</v>
+        <v>1025288.451310518</v>
       </c>
       <c r="J195" t="n">
         <v>0</v>
@@ -6703,22 +6703,22 @@
         <v>1</v>
       </c>
       <c r="D196" t="n">
-        <v>99.53832656796757</v>
+        <v>179.9243150908845</v>
       </c>
       <c r="E196" t="n">
-        <v>8000</v>
+        <v>7875</v>
       </c>
       <c r="F196" t="n">
-        <v>1053779.531002349</v>
+        <v>1037396.167105313</v>
       </c>
       <c r="G196" t="n">
         <v>131.7099990844727</v>
       </c>
       <c r="H196" t="n">
-        <v>46.27207995605469</v>
+        <v>46.11402795715333</v>
       </c>
       <c r="I196" t="n">
-        <v>1052044.650886963</v>
+        <v>1035607.945267064</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
@@ -6735,13 +6735,13 @@
         <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>99.53832656796757</v>
+        <v>179.9243150908845</v>
       </c>
       <c r="E197" t="n">
-        <v>8000</v>
+        <v>7875</v>
       </c>
       <c r="F197" t="n">
-        <v>1062019.521236724</v>
+        <v>1045507.407492276</v>
       </c>
       <c r="G197" t="n">
         <v>132.7399978637695</v>
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>1052044.650886963</v>
+        <v>1035607.945267064</v>
       </c>
       <c r="J197" t="n">
         <v>0</v>
@@ -6767,13 +6767,13 @@
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>99.53832656796757</v>
+        <v>179.9243150908845</v>
       </c>
       <c r="E198" t="n">
-        <v>8000</v>
+        <v>7875</v>
       </c>
       <c r="F198" t="n">
-        <v>1073539.540767974</v>
+        <v>1056847.42671835</v>
       </c>
       <c r="G198" t="n">
         <v>134.1800003051758</v>
@@ -6782,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>1052044.650886963</v>
+        <v>1035607.945267064</v>
       </c>
       <c r="J198" t="n">
         <v>0</v>
@@ -6796,28 +6796,28 @@
         <v>44391</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D199" t="n">
-        <v>99.53832656796757</v>
+        <v>1052523.15692236</v>
       </c>
       <c r="E199" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>1069859.548092193</v>
+        <v>1052523.15692236</v>
       </c>
       <c r="G199" t="n">
         <v>133.7200012207031</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>701.7770057678224</v>
       </c>
       <c r="I199" t="n">
-        <v>1052044.650886963</v>
+        <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>0</v>
+        <v>16735.28734020528</v>
       </c>
     </row>
     <row r="200">
@@ -6831,13 +6831,13 @@
         <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>99.53832656796757</v>
+        <v>1052523.15692236</v>
       </c>
       <c r="E200" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>1051219.533443755</v>
+        <v>1052523.15692236</v>
       </c>
       <c r="G200" t="n">
         <v>131.3899993896484</v>
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>1052044.650886963</v>
+        <v>0</v>
       </c>
       <c r="J200" t="n">
         <v>0</v>
@@ -6863,25 +6863,25 @@
         <v>-1</v>
       </c>
       <c r="D201" t="n">
-        <v>1034928.295846099</v>
+        <v>1052523.15692236</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>1034928.295846099</v>
+        <v>1052523.15692236</v>
       </c>
       <c r="G201" t="n">
         <v>129.4400024414062</v>
       </c>
       <c r="H201" t="n">
-        <v>691.26201171875</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>-17215.89336743159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -6895,22 +6895,22 @@
         <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>10519.1745821329</v>
+        <v>10741.60851514506</v>
       </c>
       <c r="E202" t="n">
-        <v>8078</v>
+        <v>8215</v>
       </c>
       <c r="F202" t="n">
-        <v>1034244.110884318</v>
+        <v>1051828.554754616</v>
       </c>
       <c r="G202" t="n">
         <v>126.7299995422363</v>
       </c>
       <c r="H202" t="n">
-        <v>684.1849617813111</v>
+        <v>694.6021677436829</v>
       </c>
       <c r="I202" t="n">
-        <v>1024409.121263966</v>
+        <v>1041781.548407215</v>
       </c>
       <c r="J202" t="n">
         <v>0</v>
@@ -6927,22 +6927,22 @@
         <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>178.7579957658619</v>
+        <v>146.8594204726705</v>
       </c>
       <c r="E203" t="n">
-        <v>8159</v>
+        <v>8298</v>
       </c>
       <c r="F203" t="n">
-        <v>1037106.06924073</v>
+        <v>1054739.680686647</v>
       </c>
       <c r="G203" t="n">
         <v>127.0900001525879</v>
       </c>
       <c r="H203" t="n">
-        <v>46.12657400741578</v>
+        <v>46.27908200759888</v>
       </c>
       <c r="I203" t="n">
-        <v>1034749.537850333</v>
+        <v>1052376.297501888</v>
       </c>
       <c r="J203" t="n">
         <v>0</v>
@@ -6959,13 +6959,13 @@
         <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>178.7579957658619</v>
+        <v>146.8594204726705</v>
       </c>
       <c r="E204" t="n">
-        <v>8159</v>
+        <v>8298</v>
       </c>
       <c r="F204" t="n">
-        <v>1053342.461811226</v>
+        <v>1071252.682960207</v>
       </c>
       <c r="G204" t="n">
         <v>129.0799980163574</v>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>1034749.537850333</v>
+        <v>1052376.297501888</v>
       </c>
       <c r="J204" t="n">
         <v>0</v>
@@ -6991,25 +6991,25 @@
         <v>-1</v>
       </c>
       <c r="D205" t="n">
-        <v>1085501.676278636</v>
+        <v>1103960.966414131</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>1085501.676278636</v>
+        <v>1103960.966414131</v>
       </c>
       <c r="G205" t="n">
         <v>133.1100006103516</v>
       </c>
       <c r="H205" t="n">
-        <v>721.5766969879151</v>
+        <v>732.6780710388184</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>50573.38043253706</v>
+        <v>51437.80949177081</v>
       </c>
     </row>
     <row r="206">
@@ -7020,16 +7020,16 @@
         <v>44400</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D206" t="n">
-        <v>1085501.676278636</v>
+        <v>1103960.966414131</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>1085501.676278636</v>
+        <v>1103960.966414131</v>
       </c>
       <c r="G206" t="n">
         <v>134.6500015258789</v>
@@ -7055,13 +7055,13 @@
         <v>-1</v>
       </c>
       <c r="D207" t="n">
-        <v>1085501.676278636</v>
+        <v>1103960.966414131</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>1085501.676278636</v>
+        <v>1103960.966414131</v>
       </c>
       <c r="G207" t="n">
         <v>133.879997253418</v>
@@ -7087,13 +7087,13 @@
         <v>-1</v>
       </c>
       <c r="D208" t="n">
-        <v>1085501.676278636</v>
+        <v>1103960.966414131</v>
       </c>
       <c r="E208" t="n">
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>1085501.676278636</v>
+        <v>1103960.966414131</v>
       </c>
       <c r="G208" t="n">
         <v>132.3499984741211</v>
@@ -7119,13 +7119,13 @@
         <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>1085501.676278636</v>
+        <v>1103960.966414131</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>1085501.676278636</v>
+        <v>1103960.966414131</v>
       </c>
       <c r="G209" t="n">
         <v>132.8199996948242</v>
@@ -7151,13 +7151,13 @@
         <v>-1</v>
       </c>
       <c r="D210" t="n">
-        <v>1085501.676278636</v>
+        <v>1103960.966414131</v>
       </c>
       <c r="E210" t="n">
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>1085501.676278636</v>
+        <v>1103960.966414131</v>
       </c>
       <c r="G210" t="n">
         <v>133.4300003051758</v>
@@ -7183,22 +7183,22 @@
         <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>11090.6430625322</v>
+        <v>11202.05132469641</v>
       </c>
       <c r="E211" t="n">
-        <v>8139</v>
+        <v>8278</v>
       </c>
       <c r="F211" t="n">
-        <v>1084787.508159578</v>
+        <v>1103235.796167226</v>
       </c>
       <c r="G211" t="n">
         <v>131.9199981689453</v>
       </c>
       <c r="H211" t="n">
-        <v>714.1681190582276</v>
+        <v>725.1702469055176</v>
       </c>
       <c r="I211" t="n">
-        <v>1074411.033216104</v>
+        <v>1092758.915089435</v>
       </c>
       <c r="J211" t="n">
         <v>0</v>
@@ -7215,22 +7215,22 @@
         <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>184.5072852662689</v>
+        <v>161.7651057358379</v>
       </c>
       <c r="E212" t="n">
-        <v>8220</v>
+        <v>8360</v>
       </c>
       <c r="F212" t="n">
-        <v>1102239.904776721</v>
+        <v>1120986.962554466</v>
       </c>
       <c r="G212" t="n">
         <v>134.0699996948242</v>
       </c>
       <c r="H212" t="n">
-        <v>46.46580198516846</v>
+        <v>46.54624398498535</v>
       </c>
       <c r="I212" t="n">
-        <v>1085317.16899337</v>
+        <v>1103799.201308395</v>
       </c>
       <c r="J212" t="n">
         <v>0</v>
@@ -7247,13 +7247,13 @@
         <v>1</v>
       </c>
       <c r="D213" t="n">
-        <v>36.6172855714447</v>
+        <v>13.8751060410137</v>
       </c>
       <c r="E213" t="n">
-        <v>8221</v>
+        <v>8361</v>
       </c>
       <c r="F213" t="n">
-        <v>1108391.834776721</v>
+        <v>1127243.892554466</v>
       </c>
       <c r="G213" t="n">
         <v>134.8199996948242</v>
@@ -7262,7 +7262,7 @@
         <v>13.07</v>
       </c>
       <c r="I213" t="n">
-        <v>1085465.058993065</v>
+        <v>1103947.09130809</v>
       </c>
       <c r="J213" t="n">
         <v>0</v>
@@ -7279,25 +7279,25 @@
         <v>-1</v>
       </c>
       <c r="D214" t="n">
-        <v>1123185.234017537</v>
+        <v>1142290.40806991</v>
       </c>
       <c r="E214" t="n">
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>1123185.234017537</v>
+        <v>1142290.40806991</v>
       </c>
       <c r="G214" t="n">
         <v>136.7099990844727</v>
       </c>
       <c r="H214" t="n">
-        <v>744.2857414840698</v>
+        <v>755.7693814071656</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>37683.55773890065</v>
+        <v>38329.44165577856</v>
       </c>
     </row>
     <row r="215">
@@ -7308,25 +7308,25 @@
         <v>44413</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D215" t="n">
-        <v>1123185.234017537</v>
+        <v>11665.03156990978</v>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>7985</v>
       </c>
       <c r="F215" t="n">
-        <v>1123185.234017537</v>
+        <v>1141542.53156991</v>
       </c>
       <c r="G215" t="n">
         <v>141.5</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>747.8765000000001</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>1130625.3765</v>
       </c>
       <c r="J215" t="n">
         <v>0</v>
@@ -7343,13 +7343,13 @@
         <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>1123185.234017537</v>
+        <v>11665.03156990978</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>7985</v>
       </c>
       <c r="F216" t="n">
-        <v>1123185.234017537</v>
+        <v>1133158.257201624</v>
       </c>
       <c r="G216" t="n">
         <v>140.4499969482422</v>
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>1130625.3765</v>
       </c>
       <c r="J216" t="n">
         <v>0</v>
@@ -7375,22 +7375,22 @@
         <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>11472.86337240781</v>
+        <v>167.7313319886402</v>
       </c>
       <c r="E217" t="n">
-        <v>7956</v>
+        <v>8067</v>
       </c>
       <c r="F217" t="n">
-        <v>1122448.698516451</v>
+        <v>1126643.606408283</v>
       </c>
       <c r="G217" t="n">
         <v>139.6399993896484</v>
       </c>
       <c r="H217" t="n">
-        <v>736.5355010864258</v>
+        <v>46.82028796997071</v>
       </c>
       <c r="I217" t="n">
-        <v>1111712.370645129</v>
+        <v>1142122.676737921</v>
       </c>
       <c r="J217" t="n">
         <v>0</v>
@@ -7407,13 +7407,13 @@
         <v>0</v>
       </c>
       <c r="D218" t="n">
-        <v>11472.86337240781</v>
+        <v>167.7313319886402</v>
       </c>
       <c r="E218" t="n">
-        <v>7956</v>
+        <v>8067</v>
       </c>
       <c r="F218" t="n">
-        <v>1115288.286376558</v>
+        <v>1119383.294099018</v>
       </c>
       <c r="G218" t="n">
         <v>138.7399978637695</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>1111712.370645129</v>
+        <v>1142122.676737921</v>
       </c>
       <c r="J218" t="n">
         <v>0</v>
@@ -7439,25 +7439,25 @@
         <v>-1</v>
       </c>
       <c r="D219" t="n">
-        <v>1126085.361800582</v>
+        <v>1130331.983376996</v>
       </c>
       <c r="E219" t="n">
         <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>1126085.361800582</v>
+        <v>1130331.983376996</v>
       </c>
       <c r="G219" t="n">
         <v>140.1900024414062</v>
       </c>
       <c r="H219" t="n">
-        <v>739.1609956542969</v>
+        <v>748.4976498168946</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>2900.127783044474</v>
+        <v>-11958.42469291366</v>
       </c>
     </row>
     <row r="220">
@@ -7471,13 +7471,13 @@
         <v>0</v>
       </c>
       <c r="D220" t="n">
-        <v>1126085.361800582</v>
+        <v>1130331.983376996</v>
       </c>
       <c r="E220" t="n">
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>1126085.361800582</v>
+        <v>1130331.983376996</v>
       </c>
       <c r="G220" t="n">
         <v>142.2100067138672</v>
@@ -7503,13 +7503,13 @@
         <v>-1</v>
       </c>
       <c r="D221" t="n">
-        <v>1126085.361800582</v>
+        <v>1130331.983376996</v>
       </c>
       <c r="E221" t="n">
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>1126085.361800582</v>
+        <v>1130331.983376996</v>
       </c>
       <c r="G221" t="n">
         <v>142.3500061035156</v>
@@ -7535,13 +7535,13 @@
         <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>1126085.361800582</v>
+        <v>1130331.983376996</v>
       </c>
       <c r="E222" t="n">
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>1126085.361800582</v>
+        <v>1130331.983376996</v>
       </c>
       <c r="G222" t="n">
         <v>141.0699996948242</v>
@@ -7567,13 +7567,13 @@
         <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>1126085.361800582</v>
+        <v>1130331.983376996</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>1126085.361800582</v>
+        <v>1130331.983376996</v>
       </c>
       <c r="G223" t="n">
         <v>142.120002746582</v>
@@ -7599,13 +7599,13 @@
         <v>-1</v>
       </c>
       <c r="D224" t="n">
-        <v>1126085.361800582</v>
+        <v>1130331.983376996</v>
       </c>
       <c r="E224" t="n">
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>1126085.361800582</v>
+        <v>1130331.983376996</v>
       </c>
       <c r="G224" t="n">
         <v>142.2699966430664</v>
@@ -7631,13 +7631,13 @@
         <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>1126085.361800582</v>
+        <v>1130331.983376996</v>
       </c>
       <c r="E225" t="n">
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>1126085.361800582</v>
+        <v>1130331.983376996</v>
       </c>
       <c r="G225" t="n">
         <v>139.7399978637695</v>
@@ -7663,22 +7663,22 @@
         <v>1</v>
       </c>
       <c r="D226" t="n">
-        <v>11515.29285393251</v>
+        <v>11482.27815048245</v>
       </c>
       <c r="E226" t="n">
-        <v>8073</v>
+        <v>8104</v>
       </c>
       <c r="F226" t="n">
-        <v>1125347.112708669</v>
+        <v>1129591.168043061</v>
       </c>
       <c r="G226" t="n">
         <v>137.9700012207031</v>
       </c>
       <c r="H226" t="n">
-        <v>738.2490919128418</v>
+        <v>740.815333935547</v>
       </c>
       <c r="I226" t="n">
-        <v>1114570.068946649</v>
+        <v>1118849.705226514</v>
       </c>
       <c r="J226" t="n">
         <v>0</v>
@@ -7695,13 +7695,13 @@
         <v>1</v>
       </c>
       <c r="D227" t="n">
-        <v>180.4099084643734</v>
+        <v>147.3952050143146</v>
       </c>
       <c r="E227" t="n">
-        <v>8154</v>
+        <v>8185</v>
       </c>
       <c r="F227" t="n">
-        <v>1136521.854885271</v>
+        <v>1140809.000200742</v>
       </c>
       <c r="G227" t="n">
         <v>139.3600006103516</v>
@@ -7710,7 +7710,7 @@
         <v>46.72289602966309</v>
       </c>
       <c r="I227" t="n">
-        <v>1125904.951892117</v>
+        <v>1130184.588171982</v>
       </c>
       <c r="J227" t="n">
         <v>0</v>
@@ -7727,22 +7727,22 @@
         <v>1</v>
       </c>
       <c r="D228" t="n">
-        <v>27.18990693849445</v>
+        <v>147.3952050143146</v>
       </c>
       <c r="E228" t="n">
-        <v>8155</v>
+        <v>8185</v>
       </c>
       <c r="F228" t="n">
-        <v>1142950.452350481</v>
+        <v>1147275.157694333</v>
       </c>
       <c r="G228" t="n">
         <v>140.1500015258789</v>
       </c>
       <c r="H228" t="n">
-        <v>13.07</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>1126058.171893643</v>
+        <v>1130184.588171982</v>
       </c>
       <c r="J228" t="n">
         <v>0</v>
@@ -7759,13 +7759,13 @@
         <v>1</v>
       </c>
       <c r="D229" t="n">
-        <v>27.18990693849445</v>
+        <v>147.3952050143146</v>
       </c>
       <c r="E229" t="n">
-        <v>8155</v>
+        <v>8185</v>
       </c>
       <c r="F229" t="n">
-        <v>1136671.067508562</v>
+        <v>1140972.67272424</v>
       </c>
       <c r="G229" t="n">
         <v>139.379997253418</v>
@@ -7774,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>1126058.171893643</v>
+        <v>1130184.588171982</v>
       </c>
       <c r="J229" t="n">
         <v>0</v>
@@ -7791,13 +7791,13 @@
         <v>1</v>
       </c>
       <c r="D230" t="n">
-        <v>27.18990693849445</v>
+        <v>147.3952050143146</v>
       </c>
       <c r="E230" t="n">
-        <v>8155</v>
+        <v>8185</v>
       </c>
       <c r="F230" t="n">
-        <v>1129005.409816606</v>
+        <v>1133278.815187925</v>
       </c>
       <c r="G230" t="n">
         <v>138.4400024414062</v>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>1126058.171893643</v>
+        <v>1130184.588171982</v>
       </c>
       <c r="J230" t="n">
         <v>0</v>
@@ -7823,13 +7823,13 @@
         <v>1</v>
       </c>
       <c r="D231" t="n">
-        <v>27.18990693849445</v>
+        <v>147.3952050143146</v>
       </c>
       <c r="E231" t="n">
-        <v>8155</v>
+        <v>8185</v>
       </c>
       <c r="F231" t="n">
-        <v>1136100.21999727</v>
+        <v>1140399.725222104</v>
       </c>
       <c r="G231" t="n">
         <v>139.3099975585938</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>1126058.171893643</v>
+        <v>1130184.588171982</v>
       </c>
       <c r="J231" t="n">
         <v>0</v>
@@ -7855,25 +7855,25 @@
         <v>-1</v>
       </c>
       <c r="D232" t="n">
-        <v>1147899.798420862</v>
+        <v>1152242.968373189</v>
       </c>
       <c r="E232" t="n">
         <v>0</v>
       </c>
       <c r="F232" t="n">
-        <v>1147899.798420862</v>
+        <v>1152242.968373189</v>
       </c>
       <c r="G232" t="n">
         <v>140.8499984741211</v>
       </c>
       <c r="H232" t="n">
-        <v>759.1290425338746</v>
+        <v>761.6643425064087</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
       <c r="J232" t="n">
-        <v>21814.43662028038</v>
+        <v>21910.98499619309</v>
       </c>
     </row>
     <row r="233">
@@ -7887,22 +7887,22 @@
         <v>1</v>
       </c>
       <c r="D233" t="n">
-        <v>11733.60514634119</v>
+        <v>11687.02269414258</v>
       </c>
       <c r="E233" t="n">
-        <v>8023</v>
+        <v>8054</v>
       </c>
       <c r="F233" t="n">
-        <v>1147148.599424295</v>
+        <v>1151489.137104543</v>
       </c>
       <c r="G233" t="n">
         <v>141.5200042724609</v>
       </c>
       <c r="H233" t="n">
-        <v>751.1989965667725</v>
+        <v>753.8312686462403</v>
       </c>
       <c r="I233" t="n">
-        <v>1136166.193274521</v>
+        <v>1140555.945679047</v>
       </c>
       <c r="J233" t="n">
         <v>0</v>
@@ -7919,25 +7919,25 @@
         <v>-1</v>
       </c>
       <c r="D234" t="n">
-        <v>1130280.829037035</v>
+        <v>1134556.46176502</v>
       </c>
       <c r="E234" t="n">
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>1130280.829037035</v>
+        <v>1134556.46176502</v>
       </c>
       <c r="G234" t="n">
         <v>139.5100021362305</v>
       </c>
       <c r="H234" t="n">
-        <v>741.5232482833864</v>
+        <v>744.1181343231201</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>-17618.96938382718</v>
+        <v>-17686.50660816953</v>
       </c>
     </row>
     <row r="235">
@@ -7948,25 +7948,25 @@
         <v>44441</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D235" t="n">
-        <v>1130280.829037035</v>
+        <v>11601.27731014756</v>
       </c>
       <c r="E235" t="n">
-        <v>0</v>
+        <v>7985</v>
       </c>
       <c r="F235" t="n">
-        <v>1130280.829037035</v>
+        <v>1133813.184620633</v>
       </c>
       <c r="G235" t="n">
         <v>140.5400009155273</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>743.2771443862916</v>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
+        <v>1122955.184454872</v>
       </c>
       <c r="J235" t="n">
         <v>0</v>
@@ -7983,25 +7983,25 @@
         <v>-1</v>
       </c>
       <c r="D236" t="n">
-        <v>1130280.829037035</v>
+        <v>1150626.342922582</v>
       </c>
       <c r="E236" t="n">
         <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>1130280.829037035</v>
+        <v>1150626.342922582</v>
       </c>
       <c r="G236" t="n">
         <v>142.7399978637695</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>753.8173297653198</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
       <c r="J236" t="n">
-        <v>0</v>
+        <v>16069.88115756237</v>
       </c>
     </row>
     <row r="237">
@@ -8015,22 +8015,22 @@
         <v>1</v>
       </c>
       <c r="D237" t="n">
-        <v>11548.93377296018</v>
+        <v>11757.95317628689</v>
       </c>
       <c r="E237" t="n">
-        <v>7722</v>
+        <v>7861</v>
       </c>
       <c r="F237" t="n">
-        <v>1129540.084346691</v>
+        <v>1149873.52358034</v>
       </c>
       <c r="G237" t="n">
         <v>144.7799987792969</v>
       </c>
       <c r="H237" t="n">
-        <v>740.7446903442384</v>
+        <v>752.8193422424316</v>
       </c>
       <c r="I237" t="n">
-        <v>1118731.895264075</v>
+        <v>1138868.389746295</v>
       </c>
       <c r="J237" t="n">
         <v>0</v>
@@ -8047,13 +8047,13 @@
         <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>11548.93377296018</v>
+        <v>11757.95317628689</v>
       </c>
       <c r="E238" t="n">
-        <v>7722</v>
+        <v>7861</v>
       </c>
       <c r="F238" t="n">
-        <v>1143053.584346691</v>
+        <v>1163630.27358034</v>
       </c>
       <c r="G238" t="n">
         <v>146.5299987792969</v>
@@ -8062,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="n">
-        <v>1118731.895264075</v>
+        <v>1138868.389746295</v>
       </c>
       <c r="J238" t="n">
         <v>0</v>
@@ -8079,25 +8079,25 @@
         <v>-1</v>
       </c>
       <c r="D239" t="n">
-        <v>1114290.652389891</v>
+        <v>1134350.853085339</v>
       </c>
       <c r="E239" t="n">
         <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>1114290.652389891</v>
+        <v>1134350.853085339</v>
       </c>
       <c r="G239" t="n">
         <v>142.8999938964844</v>
       </c>
       <c r="H239" t="n">
-        <v>732.0342517211914</v>
+        <v>743.9521112121582</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
       <c r="J239" t="n">
-        <v>-15990.17664714344</v>
+        <v>-16275.48983724345</v>
       </c>
     </row>
     <row r="240">
@@ -8111,13 +8111,13 @@
         <v>-1</v>
       </c>
       <c r="D240" t="n">
-        <v>1114290.652389891</v>
+        <v>1134350.853085339</v>
       </c>
       <c r="E240" t="n">
         <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>1114290.652389891</v>
+        <v>1134350.853085339</v>
       </c>
       <c r="G240" t="n">
         <v>141.6399993896484</v>
@@ -8140,25 +8140,25 @@
         <v>44449</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D241" t="n">
-        <v>1114290.652389891</v>
+        <v>11530.32140279771</v>
       </c>
       <c r="E241" t="n">
-        <v>0</v>
+        <v>7731</v>
       </c>
       <c r="F241" t="n">
-        <v>1114290.652389891</v>
+        <v>1133607.65668417</v>
       </c>
       <c r="G241" t="n">
         <v>145.1399993896484</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>743.1964011688233</v>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
+        <v>1122820.531682541</v>
       </c>
       <c r="J241" t="n">
         <v>0</v>
@@ -8175,22 +8175,22 @@
         <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>11395.65612472421</v>
+        <v>146.85970597459</v>
       </c>
       <c r="E242" t="n">
-        <v>7486</v>
+        <v>7808</v>
       </c>
       <c r="F242" t="n">
-        <v>1113559.404141082</v>
+        <v>1149718.6663466</v>
       </c>
       <c r="G242" t="n">
         <v>147.2299957275391</v>
       </c>
       <c r="H242" t="n">
-        <v>731.2482488098145</v>
+        <v>46.75202580261231</v>
       </c>
       <c r="I242" t="n">
-        <v>1102894.996265167</v>
+        <v>1134203.993379364</v>
       </c>
       <c r="J242" t="n">
         <v>0</v>
@@ -8204,28 +8204,28 @@
         <v>44453</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D243" t="n">
-        <v>11395.65612472421</v>
+        <v>1147398.393571014</v>
       </c>
       <c r="E243" t="n">
-        <v>7486</v>
+        <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>1112062.284100188</v>
+        <v>1147398.393571014</v>
       </c>
       <c r="G243" t="n">
         <v>147.0300064086914</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>758.7561740234376</v>
       </c>
       <c r="I243" t="n">
-        <v>1102894.996265167</v>
+        <v>0</v>
       </c>
       <c r="J243" t="n">
-        <v>0</v>
+        <v>13047.54048567498</v>
       </c>
     </row>
     <row r="244">
@@ -8239,25 +8239,25 @@
         <v>-1</v>
       </c>
       <c r="D244" t="n">
-        <v>1110658.568686126</v>
+        <v>1147398.393571014</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>1110658.568686126</v>
+        <v>1147398.393571014</v>
       </c>
       <c r="G244" t="n">
         <v>146.9400024414062</v>
       </c>
       <c r="H244" t="n">
-        <v>729.9457149658203</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
       <c r="J244" t="n">
-        <v>-3632.083703765878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -8271,13 +8271,13 @@
         <v>-1</v>
       </c>
       <c r="D245" t="n">
-        <v>1110658.568686126</v>
+        <v>1147398.393571014</v>
       </c>
       <c r="E245" t="n">
         <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>1110658.568686126</v>
+        <v>1147398.393571014</v>
       </c>
       <c r="G245" t="n">
         <v>149</v>
@@ -8303,13 +8303,13 @@
         <v>-1</v>
       </c>
       <c r="D246" t="n">
-        <v>1110658.568686126</v>
+        <v>1147398.393571014</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>1110658.568686126</v>
+        <v>1147398.393571014</v>
       </c>
       <c r="G246" t="n">
         <v>149.9599990844727</v>
@@ -8335,22 +8335,22 @@
         <v>1</v>
       </c>
       <c r="D247" t="n">
-        <v>11244.08322704048</v>
+        <v>11694.30594587015</v>
       </c>
       <c r="E247" t="n">
-        <v>7634</v>
+        <v>7886</v>
       </c>
       <c r="F247" t="n">
-        <v>1109929.407491567</v>
+        <v>1146647.471671578</v>
       </c>
       <c r="G247" t="n">
         <v>143.9200057983398</v>
       </c>
       <c r="H247" t="n">
-        <v>729.1611945587158</v>
+        <v>750.9218994354248</v>
       </c>
       <c r="I247" t="n">
-        <v>1099414.485459085</v>
+        <v>1135704.087625143</v>
       </c>
       <c r="J247" t="n">
         <v>0</v>
@@ -8367,22 +8367,22 @@
         <v>1</v>
       </c>
       <c r="D248" t="n">
-        <v>176.7606085895567</v>
+        <v>191.6923030066875</v>
       </c>
       <c r="E248" t="n">
-        <v>7710</v>
+        <v>7965</v>
       </c>
       <c r="F248" t="n">
-        <v>1118203.877078926</v>
+        <v>1155196.359318082</v>
       </c>
       <c r="G248" t="n">
         <v>145.0100021362305</v>
       </c>
       <c r="H248" t="n">
-        <v>46.56245609741211</v>
+        <v>46.82347410125733</v>
       </c>
       <c r="I248" t="n">
-        <v>1110481.808077536</v>
+        <v>1147206.701268007</v>
       </c>
       <c r="J248" t="n">
         <v>0</v>
@@ -8399,25 +8399,25 @@
         <v>-1</v>
       </c>
       <c r="D249" t="n">
-        <v>1144663.07162307</v>
+        <v>1182532.976930807</v>
       </c>
       <c r="E249" t="n">
         <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>1144663.07162307</v>
+        <v>1182532.976930807</v>
       </c>
       <c r="G249" t="n">
         <v>148.5400009155273</v>
       </c>
       <c r="H249" t="n">
-        <v>757.0960442352296</v>
+        <v>779.8226643753053</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>34004.5029369446</v>
+        <v>35134.58335979306</v>
       </c>
     </row>
     <row r="250">
@@ -8431,13 +8431,13 @@
         <v>0</v>
       </c>
       <c r="D250" t="n">
-        <v>1144663.07162307</v>
+        <v>1182532.976930807</v>
       </c>
       <c r="E250" t="n">
         <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>1144663.07162307</v>
+        <v>1182532.976930807</v>
       </c>
       <c r="G250" t="n">
         <v>150.5699996948242</v>
@@ -8463,13 +8463,13 @@
         <v>-1</v>
       </c>
       <c r="D251" t="n">
-        <v>1144663.07162307</v>
+        <v>1182532.976930807</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>1144663.07162307</v>
+        <v>1182532.976930807</v>
       </c>
       <c r="G251" t="n">
         <v>148.9199981689453</v>
@@ -8495,22 +8495,22 @@
         <v>1</v>
       </c>
       <c r="D252" t="n">
-        <v>11585.53075222971</v>
+        <v>11990.81030226356</v>
       </c>
       <c r="E252" t="n">
-        <v>7621</v>
+        <v>7873</v>
       </c>
       <c r="F252" t="n">
-        <v>1143913.724706698</v>
+        <v>1181761.164718157</v>
       </c>
       <c r="G252" t="n">
         <v>148.5800018310547</v>
       </c>
       <c r="H252" t="n">
-        <v>749.3469163726808</v>
+        <v>771.8122126495361</v>
       </c>
       <c r="I252" t="n">
-        <v>1133077.54087084</v>
+        <v>1170542.166628543</v>
       </c>
       <c r="J252" t="n">
         <v>0</v>
@@ -8527,25 +8527,25 @@
         <v>-1</v>
       </c>
       <c r="D253" t="n">
-        <v>1114755.078020484</v>
+        <v>1151640.655866227</v>
       </c>
       <c r="E253" t="n">
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>1114755.078020484</v>
+        <v>1151640.655866227</v>
       </c>
       <c r="G253" t="n">
         <v>144.8499984741211</v>
       </c>
       <c r="H253" t="n">
-        <v>732.2911030227663</v>
+        <v>754.1924227920532</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
       <c r="J253" t="n">
-        <v>-29907.99360258644</v>
+        <v>-30892.32106457977</v>
       </c>
     </row>
     <row r="254">
@@ -8559,13 +8559,13 @@
         <v>0</v>
       </c>
       <c r="D254" t="n">
-        <v>1114755.078020484</v>
+        <v>1151640.655866227</v>
       </c>
       <c r="E254" t="n">
         <v>0</v>
       </c>
       <c r="F254" t="n">
-        <v>1114755.078020484</v>
+        <v>1151640.655866227</v>
       </c>
       <c r="G254" t="n">
         <v>143.9199981689453</v>
@@ -8591,22 +8591,22 @@
         <v>1</v>
       </c>
       <c r="D255" t="n">
-        <v>11329.98251442293</v>
+        <v>11751.6461424308</v>
       </c>
       <c r="E255" t="n">
-        <v>7716</v>
+        <v>7971</v>
       </c>
       <c r="F255" t="n">
-        <v>1114023.511902851</v>
+        <v>1150887.224519201</v>
       </c>
       <c r="G255" t="n">
         <v>142.9099960327148</v>
       </c>
       <c r="H255" t="n">
-        <v>731.5661176330567</v>
+        <v>753.4313470260621</v>
       </c>
       <c r="I255" t="n">
-        <v>1103425.095506061</v>
+        <v>1139889.009723796</v>
       </c>
       <c r="J255" t="n">
         <v>0</v>
